--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA0B09-45E3-42C7-9DFF-2BCA20A175CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027159A-820C-4621-834D-9476AF2FDA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>葉季儒</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>3.user table 增加title / title_use欄位</t>
+  </si>
+  <si>
+    <t>2.完成個人分數排序</t>
+  </si>
+  <si>
+    <t>1.增加獲得稱號接口(php)</t>
   </si>
 </sst>
 </file>
@@ -112,10 +118,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -396,34 +402,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -466,6 +472,25 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027159A-820C-4621-834D-9476AF2FDA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F7001D-06CD-4206-B0E8-86C1D29DE3EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>葉季儒</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>1.增加獲得稱號接口(php)</t>
+  </si>
+  <si>
+    <t>1.整合遊戲介面稱號索引值</t>
+  </si>
+  <si>
+    <t>p.s.索引值由0開始</t>
+  </si>
+  <si>
+    <t>1.登入/註冊 介面設計</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -122,6 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -402,37 +411,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="5" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>44236</v>
       </c>
       <c r="B3" t="s">
@@ -475,7 +487,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>44237</v>
       </c>
       <c r="B9" t="s">
@@ -491,6 +503,25 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F7001D-06CD-4206-B0E8-86C1D29DE3EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F00808-A5A8-45CA-9220-746BE804A56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>葉季儒</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>1.登入/註冊 介面設計</t>
+  </si>
+  <si>
+    <t>1.更新使用者分數後一併更新團隊分數</t>
+  </si>
+  <si>
+    <t>2.團隊分數排序</t>
+  </si>
+  <si>
+    <t>2.後端新增使用者加入組隊選項(尚未對接)</t>
   </si>
 </sst>
 </file>
@@ -127,10 +136,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,21 +439,21 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44236</v>
       </c>
       <c r="B3" t="s">
@@ -487,7 +496,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>44237</v>
       </c>
       <c r="B9" t="s">
@@ -506,7 +515,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44242</v>
       </c>
       <c r="B12" t="s">
@@ -522,6 +531,28 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>44243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F00808-A5A8-45CA-9220-746BE804A56C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E746427D-34FE-4FB3-B557-B42B406B72F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>葉季儒</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>2.後端新增使用者加入組隊選項(尚未對接)</t>
+  </si>
+  <si>
+    <t>1.完成團隊分數排序</t>
+  </si>
+  <si>
+    <t>2. linux架設測試</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,6 +561,25 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:L1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E746427D-34FE-4FB3-B557-B42B406B72F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943EE12-45E3-4EA4-9DF6-B0CCBF4A3FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>葉季儒</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>2. linux架設測試</t>
+  </si>
+  <si>
+    <t>1.匯入python完成</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,6 +583,25 @@
         <v>22</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:L1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027159A-820C-4621-834D-9476AF2FDA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943EE12-45E3-4EA4-9DF6-B0CCBF4A3FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>葉季儒</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>1.增加獲得稱號接口(php)</t>
+  </si>
+  <si>
+    <t>1.整合遊戲介面稱號索引值</t>
+  </si>
+  <si>
+    <t>p.s.索引值由0開始</t>
+  </si>
+  <si>
+    <t>1.登入/註冊 介面設計</t>
+  </si>
+  <si>
+    <t>1.更新使用者分數後一併更新團隊分數</t>
+  </si>
+  <si>
+    <t>2.團隊分數排序</t>
+  </si>
+  <si>
+    <t>2.後端新增使用者加入組隊選項(尚未對接)</t>
+  </si>
+  <si>
+    <t>1.完成團隊分數排序</t>
+  </si>
+  <si>
+    <t>2. linux架設測試</t>
+  </si>
+  <si>
+    <t>1.匯入python完成</t>
   </si>
 </sst>
 </file>
@@ -113,12 +140,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,29 +429,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="2"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
@@ -432,7 +462,7 @@
       <c r="P1" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>44236</v>
       </c>
       <c r="B3" t="s">
@@ -475,7 +505,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>44237</v>
       </c>
       <c r="B9" t="s">
@@ -491,6 +521,85 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>44242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>44243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943EE12-45E3-4EA4-9DF6-B0CCBF4A3FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE86AF-3CA1-40E8-996F-6991C0DED393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>葉季儒</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>1.匯入python完成</t>
+  </si>
+  <si>
+    <t>1.完成team information銜接</t>
+  </si>
+  <si>
+    <t>2.完成team generate銜接</t>
+  </si>
+  <si>
+    <t>3.組隊頁面輸入隊伍名稱</t>
+  </si>
+  <si>
+    <t>3.完成team join銜接</t>
   </si>
 </sst>
 </file>
@@ -429,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +597,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -600,6 +612,36 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I22" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>44248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE86AF-3CA1-40E8-996F-6991C0DED393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8BAC2-90DD-4C85-B8AB-4668267146EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>葉季儒</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>3.完成team join銜接</t>
+  </si>
+  <si>
+    <t>4.完成 team id銜接</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,6 +647,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:L1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8BAC2-90DD-4C85-B8AB-4668267146EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF3A89-69DB-4B20-9DBB-2087E2D4C0AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>葉季儒</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>4.完成 team id銜接</t>
+  </si>
+  <si>
+    <t>3.選擇稱號功能</t>
+  </si>
+  <si>
+    <t>1.後端提供組隊詳細資料</t>
+  </si>
+  <si>
+    <t>4前端銜接組隊資料</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>44244</v>
       </c>
@@ -593,12 +602,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>44245</v>
       </c>
@@ -612,12 +621,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>44248</v>
       </c>
@@ -630,8 +639,11 @@
       <c r="I24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -639,7 +651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -647,9 +659,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>44248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF3A89-69DB-4B20-9DBB-2087E2D4C0AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A696DD-7338-4F0C-A9C2-AA7FEE80FCDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>葉季儒</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>4前端銜接組隊資料</t>
+  </si>
+  <si>
+    <t>1.組隊資料銜接完成</t>
+  </si>
+  <si>
+    <t>4.選擇稱號功能</t>
+  </si>
+  <si>
+    <t>3.小組名單顯示個別拼圖數</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,7 +675,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -691,6 +700,33 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I32" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A696DD-7338-4F0C-A9C2-AA7FEE80FCDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28278948-3240-4E90-B4C9-643C8A0D6807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>葉季儒</t>
   </si>
@@ -126,20 +126,45 @@
     <t>1.組隊資料銜接完成</t>
   </si>
   <si>
-    <t>4.選擇稱號功能</t>
-  </si>
-  <si>
     <t>3.小組名單顯示個別拼圖數</t>
+  </si>
+  <si>
+    <t>新增功能</t>
+  </si>
+  <si>
+    <t>1.組隊頁面輸入隊伍名稱</t>
+  </si>
+  <si>
+    <t>2.選擇稱號功能</t>
+  </si>
+  <si>
+    <t>4.註冊頁面設計</t>
+  </si>
+  <si>
+    <t>1.完成activity回傳串接</t>
+  </si>
+  <si>
+    <t>2.完成登入頻證時效檢查</t>
+  </si>
+  <si>
+    <t>3.獲得title是否有回傳</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,10 +184,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -171,15 +214,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,29 +523,33 @@
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="5" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>44236</v>
       </c>
       <c r="B3" t="s">
@@ -507,38 +561,38 @@
       <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>44237</v>
       </c>
       <c r="B9" t="s">
@@ -551,13 +605,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>44242</v>
       </c>
       <c r="B12" t="s">
@@ -570,13 +624,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>44243</v>
       </c>
       <c r="B15" t="s">
@@ -589,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -597,8 +651,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>44244</v>
       </c>
       <c r="B18" t="s">
@@ -611,13 +665,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>44245</v>
       </c>
       <c r="B21" t="s">
@@ -630,13 +684,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>44248</v>
       </c>
       <c r="B24" t="s">
@@ -648,11 +702,11 @@
       <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="N24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M24" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -660,7 +714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -668,13 +722,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>44249</v>
       </c>
       <c r="B29" t="s">
@@ -687,23 +741,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>44250</v>
       </c>
       <c r="B34" t="s">
@@ -715,25 +769,60 @@
       <c r="I34" t="s">
         <v>17</v>
       </c>
-      <c r="N34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I36" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28278948-3240-4E90-B4C9-643C8A0D6807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D8FA87-79DA-4DC1-BFDF-782E4D13A6CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>葉季儒</t>
   </si>
@@ -147,7 +147,16 @@
     <t>2.完成登入頻證時效檢查</t>
   </si>
   <si>
-    <t>3.獲得title是否有回傳</t>
+    <t>1. linux架設測試</t>
+  </si>
+  <si>
+    <t>2.獲得title是否有回傳</t>
+  </si>
+  <si>
+    <t>3.設計初始化對列系統</t>
+  </si>
+  <si>
+    <t>4.title oper對列系統</t>
   </si>
 </sst>
 </file>
@@ -219,10 +228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,22 +540,22 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -702,7 +711,7 @@
       <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -794,9 +803,9 @@
         <v>38</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -805,15 +814,33 @@
         <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I40" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>44252</v>
+      </c>
+      <c r="I41" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I44" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D8FA87-79DA-4DC1-BFDF-782E4D13A6CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB2132-C067-45B6-A885-0CF443309F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>葉季儒</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>4.title oper對列系統</t>
+  </si>
+  <si>
+    <t>1.優化回傳列隊系統</t>
+  </si>
+  <si>
+    <t>3. linux架設測試</t>
+  </si>
+  <si>
+    <t>1.獲得title是否有回傳</t>
+  </si>
+  <si>
+    <t>2.title oper對列系統</t>
+  </si>
+  <si>
+    <t>5.選定稱號亮起(不同顏色)</t>
+  </si>
+  <si>
+    <t>1.優化add title系統</t>
   </si>
 </sst>
 </file>
@@ -521,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,7 +783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -778,21 +796,21 @@
       <c r="I34" t="s">
         <v>17</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -809,7 +827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -820,27 +838,65 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
       <c r="I41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I44" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>44253</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>44254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I50" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB2132-C067-45B6-A885-0CF443309F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165ACC12-E9B1-480A-956C-FB3E15615391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>葉季儒</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>1.優化add title系統</t>
+  </si>
+  <si>
+    <t>1.修復組隊bug(組隊完成顯示未組隊)</t>
+  </si>
+  <si>
+    <t>2.修復後端title傳送錯誤bug</t>
+  </si>
+  <si>
+    <t>3.修復重複註冊問題</t>
+  </si>
+  <si>
+    <t>1.設計註冊介面</t>
   </si>
 </sst>
 </file>
@@ -539,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,6 +911,32 @@
         <v>47</v>
       </c>
     </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>44255</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>44257</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I1:L1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165ACC12-E9B1-480A-956C-FB3E15615391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C8ED6C-3B1F-445E-8198-4775A6C6A735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>葉季儒</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>1.設計註冊介面</t>
+  </si>
+  <si>
+    <t>1.修復後端註冊驗證bug</t>
+  </si>
+  <si>
+    <t>2.獲得稱號後自動套用</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,6 +860,9 @@
       <c r="A41" s="3">
         <v>44252</v>
       </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
       <c r="I41" t="s">
         <v>40</v>
       </c>
@@ -880,6 +889,9 @@
       <c r="A46" s="3">
         <v>44253</v>
       </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
@@ -896,6 +908,9 @@
       <c r="A49" s="3">
         <v>44254</v>
       </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
       <c r="D49" t="s">
         <v>49</v>
       </c>
@@ -915,6 +930,9 @@
       <c r="A53" s="3">
         <v>44255</v>
       </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
       <c r="D53" t="s">
         <v>50</v>
       </c>
@@ -933,8 +951,27 @@
       <c r="A57" s="3">
         <v>44257</v>
       </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
       <c r="D57" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C8ED6C-3B1F-445E-8198-4775A6C6A735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DDD6F-55F9-4985-B9A6-19F148610AF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>葉季儒</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>2.獲得稱號後自動套用</t>
+  </si>
+  <si>
+    <t>1.修復後端validation check漏洞</t>
+  </si>
+  <si>
+    <t>2.完成排行榜串接</t>
+  </si>
+  <si>
+    <t>1.確認排名相同時的顯示狀況</t>
   </si>
 </sst>
 </file>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,6 +983,25 @@
         <v>55</v>
       </c>
     </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I1:L1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DDD6F-55F9-4985-B9A6-19F148610AF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7B703-3158-464A-AB40-8C34954CCC88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>葉季儒</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>1.確認排名相同時的顯示狀況</t>
+  </si>
+  <si>
+    <t>3.後端紀錄emergency time/list</t>
+  </si>
+  <si>
+    <t>6.emergency計時方式改變</t>
+  </si>
+  <si>
+    <t>7.emergency題目選取改變</t>
   </si>
 </sst>
 </file>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,10 +1005,21 @@
       <c r="I62" t="s">
         <v>58</v>
       </c>
+      <c r="M62" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>57</v>
+      </c>
+      <c r="M63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7B703-3158-464A-AB40-8C34954CCC88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221AC8C-DF55-4989-85CA-D6DD23A07AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>葉季儒</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>7.emergency題目選取改變</t>
+  </si>
+  <si>
+    <t>4.完成註冊頁面串接</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,6 +1025,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I1:L1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221AC8C-DF55-4989-85CA-D6DD23A07AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722635F-908E-481E-87D1-81261C354E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>葉季儒</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>4.完成註冊頁面串接</t>
+  </si>
+  <si>
+    <t>1.修改註冊介面</t>
+  </si>
+  <si>
+    <t>1.修改登入介面</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,7 +1003,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -1025,9 +1031,28 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722635F-908E-481E-87D1-81261C354E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B1AC72-54E5-4380-B908-81AE9A262418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>葉季儒</t>
   </si>
@@ -219,7 +219,16 @@
     <t>1.修改註冊介面</t>
   </si>
   <si>
-    <t>1.修改登入介面</t>
+    <t>2.修改登入介面</t>
+  </si>
+  <si>
+    <t>3.加入字型選擇(Normal)</t>
+  </si>
+  <si>
+    <t>2.選取科系列表</t>
+  </si>
+  <si>
+    <t>4.優化排名系統</t>
   </si>
 </sst>
 </file>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,6 +1064,38 @@
         <v>64</v>
       </c>
     </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I1:L1"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B1AC72-54E5-4380-B908-81AE9A262418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD3E38-9E72-422F-91DB-2148EC94141D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>葉季儒</t>
   </si>
@@ -229,25 +229,56 @@
   </si>
   <si>
     <t>4.優化排名系統</t>
+  </si>
+  <si>
+    <t>沈沛錡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在加入突發事件list、相關程序設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.確認突發事件時間的function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.突發事件獎勵規則修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.介面的更新、檢查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.拼圖選單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -593,18 +624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -629,7 +660,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -646,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -657,22 +688,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -686,12 +717,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -705,12 +736,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -724,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -732,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -746,12 +777,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -765,12 +796,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -787,7 +818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -795,7 +826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -803,12 +834,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -822,22 +853,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -854,17 +885,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -881,7 +912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -892,7 +923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -906,22 +937,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -935,12 +966,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -957,12 +988,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -973,17 +1004,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -994,7 +1025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1005,12 +1036,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1027,7 +1058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1035,17 +1066,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1059,12 +1090,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1078,7 +1109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1086,14 +1117,43 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1162,8 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="M1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD3E38-9E72-422F-91DB-2148EC94141D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309B35C-27C8-47A9-A95D-F07F0CB2DA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>葉季儒</t>
   </si>
@@ -253,30 +253,36 @@
   <si>
     <t>4.拼圖選單</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加Debug Output功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    在Global區域Debug變數可以啟動</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -624,18 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -660,7 +666,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -677,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -688,22 +694,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -717,12 +723,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -736,12 +742,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -755,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -763,7 +769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -777,12 +783,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -796,12 +802,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -818,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -826,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -834,12 +840,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -853,22 +859,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -885,17 +891,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -912,7 +918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -923,7 +929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -937,22 +943,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -966,12 +972,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -988,12 +994,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1004,17 +1010,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1036,12 +1042,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1066,17 +1072,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1090,12 +1096,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1117,17 +1123,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1141,19 +1147,41 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9">
+      <c r="D81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309B35C-27C8-47A9-A95D-F07F0CB2DA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F819F2B7-5B71-4925-BAD6-B10759BE2855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>葉季儒</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t xml:space="preserve">    在Global區域Debug變數可以啟動</t>
+  </si>
+  <si>
+    <t>3.validation key 是否有檢查</t>
+  </si>
+  <si>
+    <t>1.完成emergency list接收(傳送未完成)</t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1176,12 +1182,36 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="4:9">
+    <row r="81" spans="1:9">
       <c r="D81" t="s">
         <v>75</v>
       </c>
       <c r="I81" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="I84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="I85" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309B35C-27C8-47A9-A95D-F07F0CB2DA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DD06D4-EB51-4989-8972-CE7F5C1C6516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>葉季儒</t>
   </si>
@@ -259,30 +259,66 @@
   </si>
   <si>
     <t xml:space="preserve">    在Global區域Debug變數可以啟動</t>
+  </si>
+  <si>
+    <t>3.更新活動紀錄底圖、格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.更新組隊資訊底圖、格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.突發事件規則設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.拼圖選單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.字型、顏色的設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.突發事件規則修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2介面更新、檢查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.排行榜加按鈕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.排行榜團體版本資訊欄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -630,18 +666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -666,7 +702,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -683,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -694,22 +730,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -723,12 +759,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -742,12 +778,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -761,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -769,7 +805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -783,12 +819,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -802,12 +838,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -824,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -832,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -840,12 +876,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -859,22 +895,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -891,17 +927,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -918,7 +954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -929,7 +965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -943,22 +979,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -972,12 +1008,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -994,12 +1030,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1010,17 +1046,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1031,7 +1067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1042,12 +1078,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1064,7 +1100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1072,17 +1108,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1096,12 +1132,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1115,7 +1151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1123,17 +1159,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1147,22 +1183,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1176,12 +1212,56 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="4:9">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
       <c r="I81" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s">
+        <v>82</v>
+      </c>
+      <c r="P84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s">
+        <v>83</v>
+      </c>
+      <c r="P85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B3B6CF-3271-4C6E-B73F-26A295C6C0D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49C77A-6DF0-490D-84CC-F255A7E4FEB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>葉季儒</t>
   </si>
@@ -259,6 +259,44 @@
   </si>
   <si>
     <t xml:space="preserve">    在Global區域Debug變數可以啟動</t>
+  </si>
+  <si>
+    <t>1.完成emergency list接收(傳送未完成)</t>
+  </si>
+  <si>
+    <t>3.validation key 是否有檢查</t>
+  </si>
+  <si>
+    <t>2.團隊資訊、活動紀錄頁面更新圖片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.拼圖選單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.介面檢查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.字型和顏色設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.團體排行的資訊欄設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.排行榜增加一個按鈕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.突發事件獎勵規則設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.突發事件流程的設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:R94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1184,10 +1222,70 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>70</v>
+      </c>
+      <c r="I87" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s">
+        <v>80</v>
+      </c>
+      <c r="P88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" t="s">
+        <v>83</v>
+      </c>
+      <c r="P89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49C77A-6DF0-490D-84CC-F255A7E4FEB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19615A19-8F31-4512-8C48-12D2311AA217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>葉季儒</t>
   </si>
@@ -297,30 +297,39 @@
   <si>
     <t>3.突發事件流程的設定</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.是否支持輸入中文</t>
+  </si>
+  <si>
+    <t>2.增加debug統一輸出接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Data.debug_msg(level,msg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -668,18 +677,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -704,7 +713,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -721,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -732,22 +741,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -761,12 +770,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -780,12 +789,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -799,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -807,7 +816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -821,12 +830,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -840,12 +849,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -862,7 +871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -870,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -878,12 +887,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -897,22 +906,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -929,17 +938,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -956,18 +965,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
       <c r="I39" t="s">
         <v>41</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -981,22 +990,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1010,12 +1019,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1032,12 +1041,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1048,17 +1057,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1080,12 +1089,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1102,25 +1111,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1134,12 +1143,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1161,17 +1170,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1185,22 +1194,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1236,57 +1245,68 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
       <c r="I84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
       <c r="I85" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+    <row r="86" spans="1:16">
+      <c r="I86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="3">
         <v>44268</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>68</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>70</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I88" t="s">
         <v>79</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D88" t="s">
+    <row r="89" spans="1:16">
+      <c r="D89" t="s">
         <v>78</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I89" t="s">
         <v>80</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P89" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
+    <row r="90" spans="1:16">
+      <c r="D90" t="s">
         <v>85</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I90" t="s">
         <v>83</v>
       </c>
-      <c r="P89" t="s">
+      <c r="P90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
+    <row r="92" spans="1:16">
+      <c r="A92" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19615A19-8F31-4512-8C48-12D2311AA217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4513754-D402-4097-ADF9-4A98FD77AEB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>葉季儒</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t xml:space="preserve">    Data.debug_msg(level,msg)</t>
+  </si>
+  <si>
+    <t>1.完成emergency list串接</t>
+  </si>
+  <si>
+    <t>5.emergency request time</t>
   </si>
 </sst>
 </file>
@@ -677,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1306,7 +1312,38 @@
       </c>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="3"/>
+      <c r="A92" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="I93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="I94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="I95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="I96" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4513754-D402-4097-ADF9-4A98FD77AEB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0931DB-DA5F-4CC6-9FD7-E4767BD95B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>葉季儒</t>
   </si>
@@ -312,30 +312,42 @@
   </si>
   <si>
     <t>5.emergency request time</t>
+  </si>
+  <si>
+    <t>1.突發事件時間func修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.拼圖選單(部分)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.突發事件規則、機率設定(週期長度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -683,18 +695,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,7 +731,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -736,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -747,22 +759,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -776,12 +788,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -795,12 +807,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -814,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -822,7 +834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -836,12 +848,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -855,12 +867,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -877,7 +889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -885,7 +897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -893,12 +905,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -912,22 +924,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -944,17 +956,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -971,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -982,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -996,22 +1008,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1025,12 +1037,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1047,12 +1059,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1063,17 +1075,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1095,12 +1107,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1125,17 +1137,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1149,12 +1161,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1176,17 +1188,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1200,22 +1212,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1237,7 +1249,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1267,12 +1279,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1325,24 +1337,65 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I93" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
+      </c>
+      <c r="I98" t="s">
+        <v>79</v>
+      </c>
+      <c r="P98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>92</v>
+      </c>
+      <c r="I99" t="s">
+        <v>80</v>
+      </c>
+      <c r="P99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>83</v>
+      </c>
+      <c r="P100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P101" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0931DB-DA5F-4CC6-9FD7-E4767BD95B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBBEEFA-05EB-415E-9611-567A8A64E6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>葉季儒</t>
   </si>
@@ -324,30 +324,33 @@
   <si>
     <t>4.突發事件規則、機率設定(週期長度)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.完成emergency_time後端製作</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -697,16 +700,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,7 +734,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -748,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -759,22 +762,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -788,12 +791,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -807,12 +810,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -826,7 +829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -834,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -848,12 +851,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -867,12 +870,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -889,7 +892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -897,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -905,12 +908,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -924,22 +927,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -956,17 +959,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -983,7 +986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -994,7 +997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1008,22 +1011,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1037,12 +1040,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1059,12 +1062,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1075,17 +1078,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1107,12 +1110,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1137,17 +1140,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1161,12 +1164,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1188,17 +1191,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1212,22 +1215,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1279,12 +1282,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1337,27 +1340,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
+      <c r="D93" t="s">
+        <v>94</v>
+      </c>
       <c r="I93" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBBEEFA-05EB-415E-9611-567A8A64E6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFD666-A60B-4733-8AB8-65BA05DDDD61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t>葉季儒</t>
   </si>
@@ -327,30 +327,38 @@
   </si>
   <si>
     <t>2.完成emergency_time後端製作</t>
+  </si>
+  <si>
+    <t>1.拼圖選單(差更改選單內文字)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.拼圖選單(大部分)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -698,18 +706,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,7 +742,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -751,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -762,22 +770,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -791,12 +799,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -810,12 +818,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -829,7 +837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -837,7 +845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -851,12 +859,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -870,12 +878,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -892,7 +900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -900,7 +908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -908,12 +916,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -927,22 +935,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -959,17 +967,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -986,7 +994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1011,22 +1019,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1040,12 +1048,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1062,12 +1070,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1078,17 +1086,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1110,12 +1118,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1140,17 +1148,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1164,12 +1172,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1191,17 +1199,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1215,22 +1223,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1282,12 +1290,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1340,7 +1348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1348,22 +1356,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1399,8 +1407,46 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>96</v>
+      </c>
+      <c r="I103" t="s">
+        <v>95</v>
+      </c>
+      <c r="P103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>80</v>
+      </c>
+      <c r="P104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>83</v>
+      </c>
+      <c r="P105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P106" t="s">
         <v>93</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBBEEFA-05EB-415E-9611-567A8A64E6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FD6FB-9403-49BB-9B89-AC19C9C201B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>葉季儒</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>2.完成emergency_time後端製作</t>
+  </si>
+  <si>
+    <t>1.完成emergency_time接收(後續處理未完成)</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1402,6 +1405,40 @@
     <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>95</v>
+      </c>
+      <c r="I103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="I104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="I105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="I106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="I107" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FD6FB-9403-49BB-9B89-AC19C9C201B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C41BFD-9539-435E-B407-C47D59775583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>葉季儒</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>1.完成emergency_time接收(後續處理未完成)</t>
+  </si>
+  <si>
+    <t>1.完成emergency_time串接</t>
+  </si>
+  <si>
+    <t>5.emergency CD set</t>
   </si>
 </sst>
 </file>
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1439,6 +1445,40 @@
     <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
+      <c r="I109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="I110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="I111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="I112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C41BFD-9539-435E-B407-C47D59775583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE431B9-96D1-4A55-B9AF-4C5588AF9673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
   <si>
     <t>葉季儒</t>
   </si>
@@ -335,7 +335,7 @@
     <t>1.完成emergency_time串接</t>
   </si>
   <si>
-    <t>5.emergency CD set</t>
+    <t>3.emergency CD set</t>
   </si>
 </sst>
 </file>
@@ -707,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N107" sqref="N107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1468,16 +1468,6 @@
     </row>
     <row r="111" spans="1:16">
       <c r="I111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
-      <c r="I112" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9">
-      <c r="I113" t="s">
         <v>97</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C41BFD-9539-435E-B407-C47D59775583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819BA68-B7B7-4D83-9263-9C4E1C5F2CB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>葉季儒</t>
   </si>
@@ -336,30 +336,46 @@
   </si>
   <si>
     <t>5.emergency CD set</t>
+  </si>
+  <si>
+    <t>1.稱號設定選單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.團體排行的資訊欄設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.突發事件規則、冷卻時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.突發事件獎勵規則設定(+第二輪)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -707,18 +723,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N107" sqref="N107"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="P116" sqref="P116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,7 +759,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -760,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -771,22 +787,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -800,12 +816,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -819,12 +835,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -838,7 +854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -846,7 +862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -860,12 +876,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -879,12 +895,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -901,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -909,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -917,12 +933,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -936,22 +952,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -968,17 +984,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -995,7 +1011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1020,22 +1036,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1049,12 +1065,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1071,12 +1087,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1087,17 +1103,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1108,7 +1124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1119,12 +1135,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1141,7 +1157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1149,17 +1165,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1173,12 +1189,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1192,7 +1208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1200,17 +1216,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1224,22 +1240,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1253,7 +1269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1261,7 +1277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1283,7 +1299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1291,12 +1307,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1313,7 +1329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1335,7 +1351,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1349,7 +1365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1357,22 +1373,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1400,7 +1416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1408,12 +1424,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1427,27 +1443,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1461,24 +1477,61 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I112" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I113" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>44271</v>
+      </c>
+      <c r="D115" t="s">
+        <v>79</v>
+      </c>
+      <c r="I115" t="s">
+        <v>98</v>
+      </c>
+      <c r="P115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>80</v>
+      </c>
+      <c r="P116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819BA68-B7B7-4D83-9263-9C4E1C5F2CB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B565C97C-D925-4D8B-9B3A-6BFF20F1747F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3528" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
   <si>
     <t>葉季儒</t>
   </si>
@@ -335,23 +335,34 @@
     <t>1.完成emergency_time串接</t>
   </si>
   <si>
-    <t>5.emergency CD set</t>
+    <t>3.emergency CD set</t>
+  </si>
+  <si>
+    <t>沈沛錡</t>
+  </si>
+  <si>
+    <t>1.拼圖選單</t>
   </si>
   <si>
     <t>1.稱號設定選單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.字型和顏色設定</t>
+  </si>
+  <si>
+    <t>2.介面檢查</t>
+  </si>
+  <si>
+    <t>2.突發事件獎勵規則設定(+第二輪)</t>
+  </si>
+  <si>
+    <t>3.排行榜增加一個按鈕</t>
   </si>
   <si>
     <t>4.團體排行的資訊欄設定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5.突發事件規則、冷卻時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.突發事件獎勵規則設定(+第二輪)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -723,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="P116" sqref="P116"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1484,54 +1495,47 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I112" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>99</v>
+      </c>
       <c r="I113" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="P113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>102</v>
+      </c>
+      <c r="P114" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
-        <v>44271</v>
-      </c>
-      <c r="D115" t="s">
-        <v>79</v>
-      </c>
       <c r="I115" t="s">
-        <v>98</v>
-      </c>
-      <c r="P115" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
-        <v>80</v>
-      </c>
-      <c r="P116" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I119" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE431B9-96D1-4A55-B9AF-4C5588AF9673}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104D916-C74B-47BE-A83C-5F9045F291A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3876" yWindow="900" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
   <si>
     <t>葉季儒</t>
   </si>
@@ -336,30 +336,57 @@
   </si>
   <si>
     <t>3.emergency CD set</t>
+  </si>
+  <si>
+    <t>沈沛錡</t>
+  </si>
+  <si>
+    <t>1.拼圖選單</t>
+  </si>
+  <si>
+    <t>1.稱號設定選單</t>
+  </si>
+  <si>
+    <t>1.字型和顏色設定</t>
+  </si>
+  <si>
+    <t>2.介面檢查</t>
+  </si>
+  <si>
+    <t>2.突發事件獎勵規則設定(+第二輪)</t>
+  </si>
+  <si>
+    <t>3.排行榜增加一個按鈕</t>
+  </si>
+  <si>
+    <t>4.團體排行的資訊欄設定</t>
+  </si>
+  <si>
+    <t>5.突發事件規則、冷卻時間</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -707,18 +734,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+      <selection activeCell="A113" sqref="A113:Q117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,7 +770,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -760,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -771,22 +798,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -800,12 +827,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -819,12 +846,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -838,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -846,7 +873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -860,12 +887,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -879,12 +906,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -901,7 +928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -909,7 +936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -917,12 +944,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -936,22 +963,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -968,17 +995,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -995,7 +1022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1006,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1020,22 +1047,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1049,12 +1076,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1071,12 +1098,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1087,17 +1114,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1108,7 +1135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1119,12 +1146,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1141,7 +1168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1149,17 +1176,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1173,12 +1200,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1192,7 +1219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1200,17 +1227,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1224,22 +1251,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1253,7 +1280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1261,7 +1288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1275,7 +1302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1283,7 +1310,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1291,12 +1318,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1313,7 +1340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1324,7 +1351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1335,7 +1362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1349,7 +1376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1357,22 +1384,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1389,7 +1416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1400,7 +1427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1408,12 +1435,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1427,27 +1454,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1461,14 +1488,54 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>99</v>
+      </c>
+      <c r="I113" t="s">
+        <v>100</v>
+      </c>
+      <c r="P113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>102</v>
+      </c>
+      <c r="P114" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104D916-C74B-47BE-A83C-5F9045F291A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0E26B4-A730-4BA2-BA79-005DB446C7E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3876" yWindow="900" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
   <si>
     <t>葉季儒</t>
   </si>
@@ -363,30 +363,36 @@
   </si>
   <si>
     <t>5.突發事件規則、冷卻時間</t>
+  </si>
+  <si>
+    <t>1.修改註冊頁面學系選單</t>
+  </si>
+  <si>
+    <t>2.emergency CD set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -734,18 +740,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:Q117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,7 +776,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -787,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -798,22 +804,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -827,12 +833,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -846,12 +852,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -865,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -873,7 +879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -887,12 +893,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -906,12 +912,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -928,7 +934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -936,7 +942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -944,12 +950,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -963,22 +969,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -995,17 +1001,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1047,22 +1053,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1076,12 +1082,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1098,12 +1104,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1114,17 +1120,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1146,12 +1152,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1176,17 +1182,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1200,12 +1206,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1227,17 +1233,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1251,22 +1257,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1318,12 +1324,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1384,22 +1390,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1435,12 +1441,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1454,27 +1460,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1488,17 +1494,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1523,19 +1529,38 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>107</v>
+      </c>
+      <c r="I119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="I120" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0E26B4-A730-4BA2-BA79-005DB446C7E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668782A9-02C5-4736-AD5C-688DBE4FB4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>葉季儒</t>
   </si>
@@ -369,6 +369,15 @@
   </si>
   <si>
     <t>2.emergency CD set</t>
+  </si>
+  <si>
+    <t>3.確保團隊分數正確</t>
+  </si>
+  <si>
+    <t>4.小P 伺服器</t>
+  </si>
+  <si>
+    <t>1.科系選單可顯示中文</t>
   </si>
 </sst>
 </file>
@@ -740,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1561,6 +1570,35 @@
     <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>111</v>
+      </c>
+      <c r="I122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="I123" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="I124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="I125" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668782A9-02C5-4736-AD5C-688DBE4FB4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B52F7-1479-43D0-A54D-56F7BBCDB00E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
   <si>
     <t>葉季儒</t>
   </si>
@@ -378,30 +378,66 @@
   </si>
   <si>
     <t>1.科系選單可顯示中文</t>
+  </si>
+  <si>
+    <t>1.稱號圖片設定(page2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.稱號圖片設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.稱號設定功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.找字型檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.突發事件規則確認和設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排行榜問題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.拼圖額外頁面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.拼圖選單細節處理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.突發事件獎勵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -749,18 +785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+      <selection activeCell="R127" sqref="R127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -785,7 +821,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -802,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -813,22 +849,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -842,12 +878,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -861,12 +897,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -880,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -888,7 +924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -902,12 +938,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -921,12 +957,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -943,7 +979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -951,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -959,12 +995,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -978,22 +1014,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1010,17 +1046,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1037,7 +1073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1048,7 +1084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1062,22 +1098,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1091,12 +1127,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1113,12 +1149,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1129,17 +1165,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1150,7 +1186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1161,12 +1197,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1183,7 +1219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1191,17 +1227,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1215,12 +1251,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1234,7 +1270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1242,17 +1278,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1266,22 +1302,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1295,7 +1331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1303,7 +1339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1317,7 +1353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1325,7 +1361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1333,12 +1369,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1355,7 +1391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1366,7 +1402,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1377,7 +1413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1391,7 +1427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1399,22 +1435,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1431,7 +1467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1442,7 +1478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1450,12 +1486,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1469,27 +1505,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1503,17 +1539,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1530,7 +1566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1538,22 +1574,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1567,12 +1603,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1586,19 +1622,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I127" t="s">
+        <v>113</v>
+      </c>
+      <c r="P127" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>114</v>
+      </c>
+      <c r="P128" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>115</v>
+      </c>
+      <c r="P129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B52F7-1479-43D0-A54D-56F7BBCDB00E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE1AB8E-A695-4CC2-BAF6-AF56E1B031F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
   <si>
     <t>葉季儒</t>
   </si>
@@ -414,30 +414,33 @@
   <si>
     <t>3.突發事件獎勵</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排行榜顯示修復中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -785,18 +788,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="R127" sqref="R127"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -821,7 +824,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -838,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -849,22 +852,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -878,12 +881,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -897,12 +900,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -916,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -924,7 +927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -938,12 +941,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -957,12 +960,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -979,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -987,7 +990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -995,12 +998,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1014,22 +1017,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1046,17 +1049,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1098,22 +1101,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1127,12 +1130,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1149,12 +1152,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1165,17 +1168,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1197,12 +1200,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1227,17 +1230,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1251,12 +1254,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1278,17 +1281,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1302,22 +1305,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1369,12 +1372,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1435,22 +1438,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1486,12 +1489,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1505,27 +1508,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1539,17 +1542,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1574,22 +1577,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1603,12 +1606,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1622,22 +1625,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1670,14 +1673,43 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>121</v>
+      </c>
+      <c r="I133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="I134" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="I135" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="I136" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE1AB8E-A695-4CC2-BAF6-AF56E1B031F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7B798-6BE9-4917-B1AC-83E47255116B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="129">
   <si>
     <t>葉季儒</t>
   </si>
@@ -417,30 +417,58 @@
   </si>
   <si>
     <t>1.排行榜顯示修復中</t>
+  </si>
+  <si>
+    <t>1.拼圖選單細節處理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.稱號圖片設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.找到字型開源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.稱號號設定功能(開發中)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.突發事件規則確認和設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.字型選擇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.確認稱號設定選單呈現畫面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -788,18 +816,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+      <selection activeCell="P142" sqref="P142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -824,7 +852,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -841,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -852,22 +880,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -881,12 +909,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -900,12 +928,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -919,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -927,7 +955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -941,12 +969,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -960,12 +988,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -982,7 +1010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -990,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -998,12 +1026,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1017,22 +1045,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1049,17 +1077,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1076,7 +1104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1087,7 +1115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1101,22 +1129,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1130,12 +1158,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1152,12 +1180,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1168,17 +1196,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1189,7 +1217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1200,12 +1228,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1222,7 +1250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1230,17 +1258,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1254,12 +1282,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1273,7 +1301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1281,17 +1309,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1305,22 +1333,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1334,7 +1362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1342,7 +1370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1356,7 +1384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1364,7 +1392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1372,12 +1400,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1405,7 +1433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1416,7 +1444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1430,7 +1458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1438,22 +1466,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1470,7 +1498,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1481,7 +1509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1489,12 +1517,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1508,27 +1536,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1542,17 +1570,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1569,7 +1597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1577,22 +1605,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1606,12 +1634,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1625,22 +1653,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1657,7 +1685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1665,7 +1693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1673,17 +1701,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1697,19 +1725,65 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>122</v>
+      </c>
+      <c r="I138" t="s">
+        <v>125</v>
+      </c>
+      <c r="P138" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>123</v>
+      </c>
+      <c r="I139" t="s">
+        <v>126</v>
+      </c>
+      <c r="P139" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>124</v>
+      </c>
+      <c r="P140" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P141" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P142" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F7B798-6BE9-4917-B1AC-83E47255116B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A57EA2-2B92-4380-B87D-6AEC2F5FE7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>葉季儒</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>5.確認稱號設定選單呈現畫面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.稱號設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.稱號設定(初步)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.突發事件第二輪設定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R142"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="P142" sqref="P142"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="M141" sqref="M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1783,6 +1795,49 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>130</v>
+      </c>
+      <c r="I144" t="s">
+        <v>129</v>
+      </c>
+      <c r="P144" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>126</v>
+      </c>
+      <c r="P145" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>131</v>
+      </c>
+      <c r="P146" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="P147" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A57EA2-2B92-4380-B87D-6AEC2F5FE7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A3A91-720B-4FF6-8A81-9BF854FF8A96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="135">
   <si>
     <t>葉季儒</t>
   </si>
@@ -457,30 +457,39 @@
   <si>
     <t>3.突發事件第二輪設定</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登入頁面修改</t>
+  </si>
+  <si>
+    <t>2.確保團隊分數正確</t>
+  </si>
+  <si>
+    <t>3.小P 伺服器</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -828,18 +837,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="M141" sqref="M141"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -864,7 +873,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -881,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -892,22 +901,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -921,12 +930,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -940,12 +949,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -959,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -967,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -981,12 +990,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1000,12 +1009,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1038,12 +1047,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1057,22 +1066,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1089,17 +1098,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1127,7 +1136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1141,22 +1150,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1170,12 +1179,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1192,12 +1201,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1208,17 +1217,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1240,12 +1249,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1270,17 +1279,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1294,12 +1303,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1321,17 +1330,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1345,22 +1354,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1412,12 +1421,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1478,22 +1487,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1529,12 +1538,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1548,27 +1557,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1582,17 +1591,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1617,22 +1626,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1646,12 +1655,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1665,22 +1674,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1713,17 +1722,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1737,22 +1746,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -1780,7 +1789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -1788,17 +1797,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -1831,14 +1840,38 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>132</v>
+      </c>
+      <c r="I150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="I151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="I152" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A3A91-720B-4FF6-8A81-9BF854FF8A96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD460488-CDDF-4A75-AA7D-08CD685FE29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
   <si>
     <t>葉季儒</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>3.小P 伺服器</t>
+  </si>
+  <si>
+    <t>1.puzzle升級bug修復</t>
+  </si>
+  <si>
+    <t>1.傳輸安全性驗證</t>
   </si>
 </sst>
 </file>
@@ -837,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R152"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1852,7 +1858,7 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="3">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="B150" t="s">
         <v>0</v>
@@ -1871,6 +1877,33 @@
     </row>
     <row r="152" spans="1:16">
       <c r="I152" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>135</v>
+      </c>
+      <c r="I154" t="s">
+        <v>58</v>
+      </c>
+      <c r="P154" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="I155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD460488-CDDF-4A75-AA7D-08CD685FE29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9CD1F-4DFC-4D12-B065-9331CD95F84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
   <si>
     <t>葉季儒</t>
   </si>
@@ -472,30 +472,62 @@
   </si>
   <si>
     <t>1.傳輸安全性驗證</t>
+  </si>
+  <si>
+    <t>1.設定稱號功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.設定畫面長寬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.突發事件第二輪設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.排行榜設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.突發事件規則獎勵確認和設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.字型設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.確認稱號設定選單呈現畫面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.拼圖額外頁面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -843,18 +875,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+      <selection activeCell="P159" sqref="P159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -879,7 +911,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -896,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -907,22 +939,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -936,12 +968,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -955,12 +987,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -974,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -996,12 +1028,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1015,12 +1047,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1037,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1053,12 +1085,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1072,22 +1104,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1104,17 +1136,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1131,7 +1163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1142,7 +1174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1156,22 +1188,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1185,12 +1217,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1207,12 +1239,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1223,17 +1255,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1244,7 +1276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1255,12 +1287,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1277,7 +1309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1285,17 +1317,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1309,12 +1341,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1328,7 +1360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1336,17 +1368,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1360,22 +1392,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1389,7 +1421,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1397,7 +1429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1411,7 +1443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1419,7 +1451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1427,12 +1459,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1449,7 +1481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1460,7 +1492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1471,7 +1503,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1485,7 +1517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1493,22 +1525,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1525,7 +1557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1536,7 +1568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1544,12 +1576,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1563,27 +1595,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1597,17 +1629,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1624,7 +1656,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1632,22 +1664,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1661,12 +1693,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1680,22 +1712,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1712,7 +1744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1720,7 +1752,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1728,17 +1760,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1752,22 +1784,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -1784,7 +1816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -1795,7 +1827,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -1803,17 +1835,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -1830,7 +1862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -1838,7 +1870,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -1846,17 +1878,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -1870,17 +1902,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -1897,14 +1929,54 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>137</v>
+      </c>
+      <c r="I158" t="s">
+        <v>141</v>
+      </c>
+      <c r="P158" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>138</v>
+      </c>
+      <c r="I159" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9CD1F-4DFC-4D12-B065-9331CD95F84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780CED2-DEF7-4964-AD6D-BF85188E6006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
   <si>
     <t>葉季儒</t>
   </si>
@@ -504,30 +504,33 @@
   <si>
     <t>5.拼圖額外頁面</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.登入/註冊頁面 16:9適配</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -875,18 +878,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R162"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="P159" sqref="P159"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="O163" sqref="O163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -911,7 +914,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -928,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -939,22 +942,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -968,12 +971,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -987,12 +990,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1028,12 +1031,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1047,12 +1050,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1085,12 +1088,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1104,22 +1107,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1136,17 +1139,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1188,22 +1191,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1217,12 +1220,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1239,12 +1242,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1255,17 +1258,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1287,12 +1290,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1317,17 +1320,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1341,12 +1344,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1368,17 +1371,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1392,22 +1395,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1459,12 +1462,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1525,22 +1528,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1576,12 +1579,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1595,27 +1598,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1629,17 +1632,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1664,22 +1667,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1693,12 +1696,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1712,22 +1715,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1760,17 +1763,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1784,22 +1787,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -1835,17 +1838,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -1878,17 +1881,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -1902,17 +1905,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -1929,17 +1932,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -1964,19 +1967,49 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I164" t="s">
+        <v>58</v>
+      </c>
+      <c r="P164" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="D165" t="s">
+        <v>145</v>
+      </c>
+      <c r="I165" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="I166" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780CED2-DEF7-4964-AD6D-BF85188E6006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8D172-B7BB-4F79-AC67-9D98884D0D3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
   <si>
     <t>葉季儒</t>
   </si>
@@ -507,6 +507,27 @@
   </si>
   <si>
     <t>2.登入/註冊頁面 16:9適配</t>
+  </si>
+  <si>
+    <t>6.emergency time檢查</t>
+  </si>
+  <si>
+    <t>3.修正emergency_finish / emergency_best串接</t>
+  </si>
+  <si>
+    <t>4.修正稱號檢查機制 (&gt;=n)</t>
+  </si>
+  <si>
+    <t>5.修正global內 總分變數 total_point</t>
+  </si>
+  <si>
+    <t>4.稱號基本資料串接global:109</t>
+  </si>
+  <si>
+    <t>3.計分方式改變(排序用python)</t>
+  </si>
+  <si>
+    <t>5.確認分數是否正確更新(接收完map request後 畫面是否更新)</t>
   </si>
 </sst>
 </file>
@@ -878,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="O163" sqref="O163"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2008,8 +2029,37 @@
       </c>
     </row>
     <row r="166" spans="1:16">
+      <c r="D166" t="s">
+        <v>147</v>
+      </c>
       <c r="I166" t="s">
-        <v>134</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="D167" t="s">
+        <v>148</v>
+      </c>
+      <c r="I167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="D168" t="s">
+        <v>149</v>
+      </c>
+      <c r="I168" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="I169" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="I170" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8D172-B7BB-4F79-AC67-9D98884D0D3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7D0C37-307D-4A09-B7B4-E97D568F3FA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
   <si>
     <t>葉季儒</t>
   </si>
@@ -528,30 +528,58 @@
   </si>
   <si>
     <t>5.確認分數是否正確更新(接收完map request後 畫面是否更新)</t>
+  </si>
+  <si>
+    <t>1.排行榜頁面(加上團隊資訊欄)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.稱號第二輪規則設定(event_status_list相關設定)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二輪獎勵部分未設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.字型設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.拼圖額外頁面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.新增稱號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.排版修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -899,18 +927,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="L176" sqref="L176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -935,7 +963,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -952,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -963,22 +991,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -992,12 +1020,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1011,12 +1039,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1030,7 +1058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1052,12 +1080,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1071,12 +1099,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1093,7 +1121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1109,12 +1137,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1128,22 +1156,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1160,17 +1188,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1187,7 +1215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1198,7 +1226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1212,22 +1240,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1241,12 +1269,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1263,12 +1291,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1279,17 +1307,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1300,7 +1328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1311,12 +1339,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1333,7 +1361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1341,17 +1369,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1365,12 +1393,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1384,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1392,17 +1420,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1416,22 +1444,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1445,7 +1473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1453,7 +1481,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1467,7 +1495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1475,7 +1503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1483,12 +1511,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1505,7 +1533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1516,7 +1544,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1527,7 +1555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1541,7 +1569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1549,22 +1577,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1581,7 +1609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1592,7 +1620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1600,12 +1628,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1619,27 +1647,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1653,17 +1681,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1680,7 +1708,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1688,22 +1716,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1717,12 +1745,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1736,22 +1764,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1768,7 +1796,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1776,7 +1804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1784,17 +1812,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1808,22 +1836,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -1840,7 +1868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -1851,7 +1879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -1859,17 +1887,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -1886,7 +1914,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -1894,7 +1922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -1902,17 +1930,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -1926,17 +1954,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -1953,17 +1981,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -1980,7 +2008,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -1988,22 +2016,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2020,7 +2048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2028,7 +2056,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2036,7 +2064,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2044,7 +2072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2052,14 +2080,57 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>153</v>
+      </c>
+      <c r="I172" t="s">
+        <v>141</v>
+      </c>
+      <c r="P172" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>154</v>
+      </c>
+      <c r="I173" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>155</v>
+      </c>
+      <c r="I174" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I175" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7D0C37-307D-4A09-B7B4-E97D568F3FA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F2F9C-9A3B-4EE9-B535-EDEBEC58975D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
   <si>
     <t>葉季儒</t>
   </si>
@@ -556,30 +556,63 @@
   <si>
     <t>5.排版修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正sort_person與sort_team計分方式</t>
+  </si>
+  <si>
+    <t>2.修正team.point計分方式</t>
+  </si>
+  <si>
+    <t>2.確保團隊分數正確 (匯入活動記得更改團隊分數)</t>
+  </si>
+  <si>
+    <t>3.資料庫增加外鍵(空值改為NULL)</t>
+  </si>
+  <si>
+    <t>3.稱號基本資料串接global:109</t>
+  </si>
+  <si>
+    <t>4.接入新資料庫(school_games_2nd)</t>
+  </si>
+  <si>
+    <t>4.確認分數是否正確更新(接收完map request後 畫面是否更新)</t>
+  </si>
+  <si>
+    <t>增加外鍵/因果關係</t>
+  </si>
+  <si>
+    <t>5.emergency time檢查</t>
+  </si>
+  <si>
+    <t>6.學系總是為0 control:18 fix</t>
+  </si>
+  <si>
+    <t>7.小P 伺服器</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -927,18 +960,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="L176" sqref="L176"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -963,7 +996,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -980,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -991,22 +1024,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1020,12 +1053,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1039,12 +1072,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1058,7 +1091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1080,12 +1113,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1099,12 +1132,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1121,7 +1154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1137,12 +1170,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1156,22 +1189,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1188,17 +1221,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1215,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1240,22 +1273,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1269,12 +1302,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1291,12 +1324,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1307,17 +1340,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1328,7 +1361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1339,12 +1372,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1361,7 +1394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1369,17 +1402,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1393,12 +1426,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1412,7 +1445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1420,17 +1453,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1444,22 +1477,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1473,7 +1506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1481,7 +1514,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1495,7 +1528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1503,7 +1536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1511,12 +1544,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1533,7 +1566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1544,7 +1577,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1555,7 +1588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1569,7 +1602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1577,22 +1610,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1609,7 +1642,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1620,7 +1653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1628,12 +1661,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1647,27 +1680,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1681,17 +1714,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1708,7 +1741,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1716,22 +1749,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1745,12 +1778,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1764,22 +1797,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1796,7 +1829,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1804,7 +1837,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1812,17 +1845,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1836,22 +1869,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -1868,7 +1901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -1879,7 +1912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -1887,17 +1920,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -1914,7 +1947,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -1922,7 +1955,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -1930,17 +1963,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -1954,17 +1987,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -1981,17 +2014,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2008,7 +2041,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2016,22 +2049,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2048,7 +2081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2056,7 +2089,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2064,7 +2097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2072,7 +2105,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2080,17 +2113,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2107,7 +2140,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2115,7 +2148,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2123,14 +2156,73 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>160</v>
+      </c>
+      <c r="I178" t="s">
+        <v>58</v>
+      </c>
+      <c r="P178" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="D179" t="s">
+        <v>161</v>
+      </c>
+      <c r="I179" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="D180" t="s">
+        <v>163</v>
+      </c>
+      <c r="I180" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="D181" t="s">
+        <v>165</v>
+      </c>
+      <c r="I181" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="E182" t="s">
+        <v>167</v>
+      </c>
+      <c r="I182" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="I183" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="I184" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F2F9C-9A3B-4EE9-B535-EDEBEC58975D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D622F42-DFA7-484E-8277-9123238D01C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="175">
   <si>
     <t>葉季儒</t>
   </si>
@@ -589,6 +589,18 @@
   </si>
   <si>
     <t>7.小P 伺服器</t>
+  </si>
+  <si>
+    <t>1.修正緊急任務/稱號數量</t>
+  </si>
+  <si>
+    <t>2.修復註冊學系全為0 BUG</t>
+  </si>
+  <si>
+    <t>3.修正global upgrade/full upgrade 串接</t>
+  </si>
+  <si>
+    <t>3.設定emergency cd遞減條件 global:327</t>
   </si>
 </sst>
 </file>
@@ -960,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R184"/>
+  <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2223,6 +2235,44 @@
     <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>171</v>
+      </c>
+      <c r="I186" t="s">
+        <v>58</v>
+      </c>
+      <c r="P186" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="D187" t="s">
+        <v>172</v>
+      </c>
+      <c r="I187" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="D188" t="s">
+        <v>173</v>
+      </c>
+      <c r="I188" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="I189" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D622F42-DFA7-484E-8277-9123238D01C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64803AFB-BB1A-4CCC-897E-C30F67FAD013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="179">
   <si>
     <t>葉季儒</t>
   </si>
@@ -601,6 +601,18 @@
   </si>
   <si>
     <t>3.設定emergency cd遞減條件 global:327</t>
+  </si>
+  <si>
+    <t>4.增加database log-table login_time/login_count</t>
+  </si>
+  <si>
+    <t>5.初次登入時emergency狀態</t>
+  </si>
+  <si>
+    <t>5.每次登入自動記錄時間</t>
+  </si>
+  <si>
+    <t>6.紀錄login_count函數 login:55</t>
   </si>
 </sst>
 </file>
@@ -972,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R189"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="K192" sqref="K192"/>
+      <selection activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2271,8 +2283,24 @@
       </c>
     </row>
     <row r="189" spans="1:16">
+      <c r="D189" t="s">
+        <v>175</v>
+      </c>
       <c r="I189" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="D190" t="s">
+        <v>177</v>
+      </c>
+      <c r="I190" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="I191" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64803AFB-BB1A-4CCC-897E-C30F67FAD013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EDFA0C-ABCD-4D21-A774-E40A6110008A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="181">
   <si>
     <t>葉季儒</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>6.紀錄login_count函數 login:55</t>
+  </si>
+  <si>
+    <t>1.Login部分套用傳輸列隊</t>
+  </si>
+  <si>
+    <t>2.Global導向資料庫至正式伺服器</t>
   </si>
 </sst>
 </file>
@@ -984,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R191"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="M198" sqref="M198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2300,6 +2306,46 @@
     </row>
     <row r="191" spans="1:16">
       <c r="I191" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>179</v>
+      </c>
+      <c r="I193" t="s">
+        <v>58</v>
+      </c>
+      <c r="P193" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="D194" t="s">
+        <v>180</v>
+      </c>
+      <c r="I194" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="I195" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="I196" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EDFA0C-ABCD-4D21-A774-E40A6110008A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3E9F7-63C0-486B-9CF0-0F3546B79873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="182">
   <si>
     <t>葉季儒</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>2.Global導向資料庫至正式伺服器</t>
+  </si>
+  <si>
+    <t>7.網域申請</t>
   </si>
 </sst>
 </file>
@@ -990,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R197"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="M198" sqref="M198"/>
+      <selection activeCell="Q194" sqref="Q194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2347,6 +2350,11 @@
     <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="I198" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3E9F7-63C0-486B-9CF0-0F3546B79873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589DC9A-D9C7-484B-BDE5-58DC19277A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="192">
   <si>
     <t>葉季儒</t>
   </si>
@@ -622,30 +622,70 @@
   </si>
   <si>
     <t>7.網域申請</t>
+  </si>
+  <si>
+    <t>1.小徑設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.拼圖頁面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.新增稱號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.突發事件內容更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.拼圖倉庫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.分數欄位相關設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.小徑圖片設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.小徑圖片放置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.稱號設定選單配色修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.二輪事件獎勵設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -993,18 +1033,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R198"/>
+  <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="Q194" sqref="Q194"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="L200" sqref="L200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1069,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1046,7 +1086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1057,22 +1097,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1086,12 +1126,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1105,12 +1145,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1124,7 +1164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1146,12 +1186,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1165,12 +1205,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1187,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1203,12 +1243,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1222,22 +1262,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1254,17 +1294,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1281,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1292,7 +1332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1306,22 +1346,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1335,12 +1375,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1357,12 +1397,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1373,17 +1413,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1394,7 +1434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1405,12 +1445,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1427,7 +1467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1435,17 +1475,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1459,12 +1499,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1478,7 +1518,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1486,17 +1526,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1510,22 +1550,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1539,7 +1579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1547,7 +1587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1561,7 +1601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1569,7 +1609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1577,12 +1617,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1599,7 +1639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1610,7 +1650,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1621,7 +1661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1635,7 +1675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1643,22 +1683,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1675,7 +1715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1686,7 +1726,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1694,12 +1734,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1713,27 +1753,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1747,17 +1787,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1774,7 +1814,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1782,22 +1822,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1811,12 +1851,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1830,22 +1870,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1862,7 +1902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1870,7 +1910,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1878,17 +1918,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1902,22 +1942,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -1934,7 +1974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -1945,7 +1985,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -1953,17 +1993,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -1980,7 +2020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -1988,7 +2028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -1996,17 +2036,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2020,17 +2060,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2047,17 +2087,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2074,7 +2114,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2082,22 +2122,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2114,7 +2154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2122,7 +2162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2130,7 +2170,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2138,7 +2178,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2146,17 +2186,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2173,7 +2213,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2181,7 +2221,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2189,17 +2229,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2216,7 +2256,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2224,7 +2264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2232,7 +2272,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2240,7 +2280,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2248,17 +2288,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2275,7 +2315,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2283,7 +2323,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2291,7 +2331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2299,7 +2339,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2307,12 +2347,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2329,7 +2369,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2337,24 +2377,79 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>188</v>
+      </c>
+      <c r="I200" t="s">
+        <v>182</v>
+      </c>
+      <c r="P200" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D201" t="s">
+        <v>189</v>
+      </c>
+      <c r="I201" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I207" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589DC9A-D9C7-484B-BDE5-58DC19277A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217286B-1E66-446B-967A-D6266386F3F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="199">
   <si>
     <t>葉季儒</t>
   </si>
@@ -661,6 +661,34 @@
   </si>
   <si>
     <t>8.二輪事件獎勵設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.cgu拼圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.大拼圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.特殊拼圖基本設置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.稱號設定選單配色修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.拼圖選單修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.版面配置和調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.特殊拼圖設定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1033,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R207"/>
+  <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="L200" sqref="L200"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="L214" sqref="L214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2449,6 +2477,67 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>192</v>
+      </c>
+      <c r="I209" t="s">
+        <v>198</v>
+      </c>
+      <c r="P209" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D210" t="s">
+        <v>193</v>
+      </c>
+      <c r="I210" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D211" t="s">
+        <v>194</v>
+      </c>
+      <c r="I211" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D212" t="s">
+        <v>195</v>
+      </c>
+      <c r="I212" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I213" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I214" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I215" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217286B-1E66-446B-967A-D6266386F3F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F439B-0276-4349-BF65-4125A446475A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="206">
   <si>
     <t>葉季儒</t>
   </si>
@@ -690,30 +690,51 @@
   <si>
     <t>1.特殊拼圖設定</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.login:55 change day設定完成</t>
+  </si>
+  <si>
+    <t>2.修復匯入活動時團隊分數改變</t>
+  </si>
+  <si>
+    <t>2.初次登入時emergency狀態</t>
+  </si>
+  <si>
+    <t>3.修復無法產生組隊代碼bug(檢查條件錯誤)</t>
+  </si>
+  <si>
+    <t>3.網域憑證申請</t>
+  </si>
+  <si>
+    <t>4.修復隊員全空bug(比較時應該使用==Null)</t>
+  </si>
+  <si>
+    <t>5.emergency cd 遞減 設定完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1061,18 +1082,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="L214" sqref="L214"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="K224" sqref="K224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1118,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1114,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1125,22 +1146,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1154,12 +1175,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1173,12 +1194,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1192,7 +1213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1214,12 +1235,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1233,12 +1254,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1255,7 +1276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1271,12 +1292,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1290,22 +1311,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1322,17 +1343,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1349,7 +1370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1374,22 +1395,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1403,12 +1424,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1425,12 +1446,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1441,17 +1462,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1462,7 +1483,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1473,12 +1494,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1495,7 +1516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1503,17 +1524,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1527,12 +1548,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1546,7 +1567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1554,17 +1575,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1578,22 +1599,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1607,7 +1628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1615,7 +1636,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1629,7 +1650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1637,7 +1658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1645,12 +1666,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1667,7 +1688,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1678,7 +1699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1689,7 +1710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1703,7 +1724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1711,22 +1732,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1743,7 +1764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1754,7 +1775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1762,12 +1783,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1781,27 +1802,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1815,17 +1836,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1842,7 +1863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1850,22 +1871,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1879,12 +1900,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1898,22 +1919,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1930,7 +1951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1938,7 +1959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1946,17 +1967,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1970,22 +1991,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2002,7 +2023,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2013,7 +2034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2021,17 +2042,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2048,7 +2069,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2056,7 +2077,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2064,17 +2085,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2088,17 +2109,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2115,17 +2136,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2142,7 +2163,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2150,22 +2171,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2182,7 +2203,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2190,7 +2211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2198,7 +2219,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2206,7 +2227,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2214,17 +2235,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2241,7 +2262,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2249,7 +2270,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2257,17 +2278,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2284,7 +2305,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2292,7 +2313,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2300,7 +2321,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2308,7 +2329,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2316,17 +2337,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2343,7 +2364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2351,7 +2372,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2359,7 +2380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2367,7 +2388,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2375,12 +2396,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2397,7 +2418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2405,27 +2426,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2442,7 +2463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2450,37 +2471,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2497,7 +2518,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2505,7 +2526,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2513,7 +2534,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2521,24 +2542,67 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
+      <c r="A218" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>199</v>
+      </c>
+      <c r="I218" t="s">
+        <v>58</v>
+      </c>
+      <c r="P218" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
+      <c r="D219" t="s">
+        <v>200</v>
+      </c>
+      <c r="I219" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
+      <c r="D220" t="s">
+        <v>202</v>
+      </c>
+      <c r="I220" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
+      <c r="D221" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
+      <c r="D222" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F439B-0276-4349-BF65-4125A446475A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D09A8-17D9-40EA-8F8F-34AD2C654070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
   <si>
     <t>葉季儒</t>
   </si>
@@ -711,30 +711,66 @@
   </si>
   <si>
     <t>5.emergency cd 遞減 設定完成</t>
+  </si>
+  <si>
+    <t>1.排行榜切換至個人無法感應</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.新增稱號設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.個功能按鈕配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.拼圖選單位置問題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.突發事件內容更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.拼圖倉庫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.分數欄位相關設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.版面配置和調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.二輪事件獎勵設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1082,18 +1118,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R222"/>
+  <dimension ref="A1:R230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="K224" sqref="K224"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="P226" sqref="P226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1154,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1135,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1146,22 +1182,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1175,12 +1211,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1194,12 +1230,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1213,7 +1249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1235,12 +1271,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1254,12 +1290,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1276,7 +1312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1292,12 +1328,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1311,22 +1347,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1343,17 +1379,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1370,7 +1406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1381,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1395,22 +1431,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1424,12 +1460,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1446,12 +1482,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1462,17 +1498,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1483,7 +1519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1494,12 +1530,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1516,7 +1552,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1524,17 +1560,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1548,12 +1584,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1567,7 +1603,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1575,17 +1611,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1599,22 +1635,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1628,7 +1664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1636,7 +1672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1650,7 +1686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1658,7 +1694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1666,12 +1702,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1688,7 +1724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1699,7 +1735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1710,7 +1746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1724,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1732,22 +1768,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1764,7 +1800,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1775,7 +1811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1783,12 +1819,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1802,27 +1838,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1836,17 +1872,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1863,7 +1899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1871,22 +1907,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1900,12 +1936,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1919,22 +1955,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1951,7 +1987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1959,7 +1995,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -1967,17 +2003,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -1991,22 +2027,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2023,7 +2059,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2034,7 +2070,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2042,17 +2078,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2069,7 +2105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2077,7 +2113,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2085,17 +2121,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2109,17 +2145,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2136,17 +2172,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2163,7 +2199,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2171,22 +2207,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2203,7 +2239,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2211,7 +2247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2219,7 +2255,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2227,7 +2263,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2235,17 +2271,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2262,7 +2298,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2270,7 +2306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2278,17 +2314,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2305,7 +2341,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2313,7 +2349,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2321,7 +2357,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2329,7 +2365,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2337,17 +2373,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2364,7 +2400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2372,7 +2408,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2380,7 +2416,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2388,7 +2424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2396,12 +2432,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2418,7 +2454,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2426,27 +2462,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2463,7 +2499,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2471,37 +2507,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2518,7 +2554,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2526,7 +2562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2534,7 +2570,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2542,27 +2578,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2579,7 +2615,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2587,7 +2623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2595,14 +2631,64 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>44291</v>
+      </c>
+      <c r="D224" t="s">
+        <v>198</v>
+      </c>
+      <c r="I224" t="s">
+        <v>206</v>
+      </c>
+      <c r="P224" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="225" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D225" t="s">
+        <v>207</v>
+      </c>
+      <c r="I225" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D226" t="s">
+        <v>208</v>
+      </c>
+      <c r="I226" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I227" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I228" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="229" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I229" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="230" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I230" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D09A8-17D9-40EA-8F8F-34AD2C654070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D8FCAF-07AC-4BE3-8441-373F1AC314E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="221">
   <si>
     <t>葉季儒</t>
   </si>
@@ -747,30 +747,48 @@
   <si>
     <t>7.二輪事件獎勵設定</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.godot內部總分重算(special分數)</t>
+  </si>
+  <si>
+    <t>5.login:589加入隊伍計分重算</t>
+  </si>
+  <si>
+    <t>1.place click串接完成</t>
+  </si>
+  <si>
+    <t>2.special puzzle串接完成</t>
+  </si>
+  <si>
+    <t>6.python排序時考慮special point</t>
+  </si>
+  <si>
+    <t>3.放置special設定團隊分數完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1118,18 +1136,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R230"/>
+  <dimension ref="A1:R237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="P226" sqref="P226"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="K236" sqref="K236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1172,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1182,22 +1200,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1211,12 +1229,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1230,12 +1248,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1271,12 +1289,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1290,12 +1308,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1312,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1328,12 +1346,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1347,22 +1365,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1379,17 +1397,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1431,22 +1449,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1460,12 +1478,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1482,12 +1500,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1498,17 +1516,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1530,12 +1548,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1560,17 +1578,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1584,12 +1602,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1611,17 +1629,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1635,22 +1653,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1664,7 +1682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1686,7 +1704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1694,7 +1712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1702,12 +1720,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1724,7 +1742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1735,7 +1753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1746,7 +1764,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1760,7 +1778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1768,22 +1786,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1811,7 +1829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1819,12 +1837,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1838,27 +1856,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1872,17 +1890,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1907,22 +1925,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1936,12 +1954,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1955,22 +1973,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -1995,7 +2013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2003,17 +2021,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2027,22 +2045,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2059,7 +2077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2070,7 +2088,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2078,17 +2096,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2105,7 +2123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2121,17 +2139,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2145,17 +2163,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2172,17 +2190,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2207,22 +2225,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2239,7 +2257,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2271,17 +2289,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2314,17 +2332,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2349,7 +2367,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2357,7 +2375,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2365,7 +2383,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2373,17 +2391,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2400,7 +2418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2408,7 +2426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2416,7 +2434,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2424,7 +2442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2432,12 +2450,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2454,7 +2472,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2462,27 +2480,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2507,37 +2525,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2562,7 +2580,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2570,7 +2588,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2578,27 +2596,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2615,7 +2633,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2623,7 +2641,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2631,20 +2649,23 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
+      <c r="B224" t="s">
+        <v>68</v>
+      </c>
       <c r="D224" t="s">
         <v>198</v>
       </c>
@@ -2655,7 +2676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2663,7 +2684,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2671,24 +2692,72 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16">
+      <c r="A232" s="3">
+        <v>44290</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>217</v>
+      </c>
+      <c r="I232" t="s">
+        <v>58</v>
+      </c>
+      <c r="P232" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16">
+      <c r="D233" t="s">
+        <v>218</v>
+      </c>
+      <c r="I233" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
+      <c r="D234" t="s">
+        <v>220</v>
+      </c>
+      <c r="I234" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
+      <c r="I235" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16">
+      <c r="I236" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16">
+      <c r="I237" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D8FCAF-07AC-4BE3-8441-373F1AC314E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAD07F-7241-4E9A-AC8B-98F696D62160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="227">
   <si>
     <t>葉季儒</t>
   </si>
@@ -765,30 +765,54 @@
   </si>
   <si>
     <t>3.放置special設定團隊分數完成</t>
+  </si>
+  <si>
+    <t>1.special puzzle內容修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.資訊欄設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.稱號設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.按鈕感應互相干擾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.娃娃頭貼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.事件內容字體不清楚的調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1136,18 +1160,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R237"/>
+  <dimension ref="A1:R248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="K236" sqref="K236"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="M248" sqref="M248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1196,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1189,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1200,22 +1224,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1229,12 +1253,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1248,12 +1272,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1267,7 +1291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1289,12 +1313,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1308,12 +1332,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1330,7 +1354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1338,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1346,12 +1370,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1365,22 +1389,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1397,17 +1421,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1449,22 +1473,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1478,12 +1502,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1500,12 +1524,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1516,17 +1540,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1537,7 +1561,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1548,12 +1572,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1570,7 +1594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1578,17 +1602,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1602,12 +1626,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1621,7 +1645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1629,17 +1653,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1653,22 +1677,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1682,7 +1706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1690,7 +1714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1704,7 +1728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1712,7 +1736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1720,12 +1744,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1742,7 +1766,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1753,7 +1777,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1764,7 +1788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1778,7 +1802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1786,22 +1810,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1818,7 +1842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1829,7 +1853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1837,12 +1861,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1856,27 +1880,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1890,17 +1914,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1917,7 +1941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1925,22 +1949,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1954,12 +1978,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1973,22 +1997,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2005,7 +2029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2013,7 +2037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2021,17 +2045,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2045,22 +2069,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2077,7 +2101,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2088,7 +2112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2096,17 +2120,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2123,7 +2147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2131,7 +2155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2139,17 +2163,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2163,17 +2187,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2190,17 +2214,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2217,7 +2241,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2225,22 +2249,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2257,7 +2281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2265,7 +2289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2273,7 +2297,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2281,7 +2305,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2289,17 +2313,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2316,7 +2340,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2324,7 +2348,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2332,17 +2356,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2359,7 +2383,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2367,7 +2391,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2375,7 +2399,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2383,7 +2407,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2391,17 +2415,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2418,7 +2442,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2426,7 +2450,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2434,7 +2458,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2442,7 +2466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2450,12 +2474,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2472,7 +2496,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2480,27 +2504,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2517,7 +2541,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2525,37 +2549,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2572,7 +2596,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2580,7 +2604,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2588,7 +2612,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2596,27 +2620,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2633,7 +2657,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2649,17 +2673,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2676,7 +2700,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2684,7 +2708,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2692,27 +2716,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44290</v>
       </c>
@@ -2729,7 +2753,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2737,7 +2761,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2745,19 +2769,84 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <v>44292</v>
+      </c>
+      <c r="D239" t="s">
+        <v>221</v>
+      </c>
+      <c r="I239" t="s">
+        <v>206</v>
+      </c>
+      <c r="P239" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D240" t="s">
+        <v>222</v>
+      </c>
+      <c r="I240" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="241" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D241" t="s">
+        <v>210</v>
+      </c>
+      <c r="I241" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="242" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I242" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="243" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I243" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="244" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I244" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="245" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I245" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="246" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I246" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="247" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I247" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="248" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I248" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAD07F-7241-4E9A-AC8B-98F696D62160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FBCBD-6A6B-476B-9826-0FDEF968179F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="232">
   <si>
     <t>葉季儒</t>
   </si>
@@ -789,30 +789,45 @@
   <si>
     <t>10.事件內容字體不清楚的調整</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.後端統一分數計算系統</t>
+  </si>
+  <si>
+    <t>2.連線超時警告</t>
+  </si>
+  <si>
+    <t>3.錯誤代碼正規化</t>
+  </si>
+  <si>
+    <t>2.修復資料刷新系統(稱號和特殊拼圖確認時機)</t>
+  </si>
+  <si>
+    <t>3.修復leader board沒有發送rank請求bug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1160,18 +1175,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R248"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="M248" sqref="M248"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="O162" sqref="O162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1211,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1224,22 +1239,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1253,12 +1268,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1272,12 +1287,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1313,12 +1328,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1332,12 +1347,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1354,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1370,12 +1385,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1389,22 +1404,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1421,17 +1436,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1448,7 +1463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1473,22 +1488,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1502,12 +1517,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1524,12 +1539,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1540,17 +1555,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1561,7 +1576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1572,12 +1587,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1594,7 +1609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1602,17 +1617,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1626,12 +1641,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1653,17 +1668,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1677,22 +1692,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1706,7 +1721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1728,7 +1743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1744,12 +1759,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1802,7 +1817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1810,22 +1825,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1842,7 +1857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1853,7 +1868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1861,12 +1876,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1880,27 +1895,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1914,17 +1929,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1941,7 +1956,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1949,22 +1964,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -1978,12 +1993,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -1997,22 +2012,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2037,7 +2052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2045,17 +2060,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2069,22 +2084,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2101,7 +2116,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2120,17 +2135,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2147,7 +2162,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2155,7 +2170,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2163,17 +2178,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2187,17 +2202,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2214,17 +2229,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2241,7 +2256,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2249,22 +2264,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2281,7 +2296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2313,17 +2328,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2340,7 +2355,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2356,17 +2371,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2399,7 +2414,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2415,17 +2430,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2442,7 +2457,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2458,7 +2473,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2474,12 +2489,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2504,27 +2519,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2541,7 +2556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2549,37 +2564,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2596,7 +2611,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2604,7 +2619,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2612,7 +2627,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2620,27 +2635,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2657,7 +2672,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2665,7 +2680,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2673,17 +2688,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2700,7 +2715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2708,7 +2723,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2716,27 +2731,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>44290</v>
       </c>
@@ -2753,7 +2768,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2761,7 +2776,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2769,25 +2784,28 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
+      <c r="B239" t="s">
+        <v>68</v>
+      </c>
       <c r="D239" t="s">
         <v>221</v>
       </c>
@@ -2798,7 +2816,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -2806,7 +2824,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -2814,39 +2832,83 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="I248" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16">
+      <c r="A250" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>227</v>
+      </c>
+      <c r="I250" t="s">
+        <v>58</v>
+      </c>
+      <c r="P250" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16">
+      <c r="D251" t="s">
+        <v>230</v>
+      </c>
+      <c r="I251" t="s">
+        <v>201</v>
+      </c>
+      <c r="P251" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16">
+      <c r="D252" t="s">
+        <v>231</v>
+      </c>
+      <c r="I252" t="s">
+        <v>203</v>
+      </c>
+      <c r="P252" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16">
+      <c r="I253" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FBCBD-6A6B-476B-9826-0FDEF968179F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53AB302-108F-4248-9AD4-16A460155ADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="233">
   <si>
     <t>葉季儒</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>3.修復leader board沒有發送rank請求bug</t>
+  </si>
+  <si>
+    <t>4.大至繪製架構圖</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="O162" sqref="O162"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="F248" sqref="F248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="232" spans="1:16">
       <c r="A232" s="3">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B232" t="s">
         <v>0</v>
@@ -2907,6 +2910,9 @@
       </c>
     </row>
     <row r="253" spans="1:16">
+      <c r="D253" t="s">
+        <v>232</v>
+      </c>
       <c r="I253" t="s">
         <v>219</v>
       </c>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53AB302-108F-4248-9AD4-16A460155ADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57012C0-C355-443E-8B30-172A514A8E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="238">
   <si>
     <t>葉季儒</t>
   </si>
@@ -807,6 +807,21 @@
   </si>
   <si>
     <t>4.大至繪製架構圖</t>
+  </si>
+  <si>
+    <t>2.更新正式服資料庫至school_games_2_01nd</t>
+  </si>
+  <si>
+    <t>修正special欄位</t>
+  </si>
+  <si>
+    <t>3.修正沒有組隊時information沒有更新</t>
+  </si>
+  <si>
+    <t>修正register bug(title and emergency not set)</t>
+  </si>
+  <si>
+    <t>1.更新正式服網頁至0407_2b</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R253"/>
+  <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="F248" sqref="F248"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2915,6 +2930,58 @@
       </c>
       <c r="I253" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16">
+      <c r="A255" s="3">
+        <v>44292</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>237</v>
+      </c>
+      <c r="I255" t="s">
+        <v>58</v>
+      </c>
+      <c r="P255" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16">
+      <c r="D256" t="s">
+        <v>236</v>
+      </c>
+      <c r="I256" t="s">
+        <v>201</v>
+      </c>
+      <c r="P256" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="257" spans="4:16">
+      <c r="D257" t="s">
+        <v>233</v>
+      </c>
+      <c r="I257" t="s">
+        <v>203</v>
+      </c>
+      <c r="P257" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="258" spans="4:16">
+      <c r="D258" t="s">
+        <v>234</v>
+      </c>
+      <c r="I258" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="259" spans="4:16">
+      <c r="D259" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57012C0-C355-443E-8B30-172A514A8E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5A6EF9-C290-4FC3-8B80-44D50ABE0C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="1248" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="248">
   <si>
     <t>葉季儒</t>
   </si>
@@ -822,30 +822,70 @@
   </si>
   <si>
     <t>1.更新正式服網頁至0407_2b</t>
+  </si>
+  <si>
+    <t>1.拼圖選單顯示問題解決</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.排行榜切換按鈕解決</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.拼圖倉庫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.分數欄位相關設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.版面配置和調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.二輪事件獎勵設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.按鈕感應互相干擾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.娃娃頭貼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.事件內容字體不清楚的調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.資訊欄稱號換行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1193,18 +1233,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R259"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="P261" sqref="P261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1229,7 +1269,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1246,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1257,22 +1297,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1286,12 +1326,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1305,12 +1345,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1324,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1332,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1346,12 +1386,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1365,12 +1405,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1387,7 +1427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1403,12 +1443,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1422,22 +1462,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1454,17 +1494,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1481,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1506,22 +1546,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1535,12 +1575,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1557,12 +1597,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1573,17 +1613,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1594,7 +1634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1605,12 +1645,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1627,7 +1667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1635,17 +1675,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1659,12 +1699,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1678,7 +1718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1686,17 +1726,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1710,22 +1750,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1739,7 +1779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1747,7 +1787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1761,7 +1801,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1769,7 +1809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1777,12 +1817,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1799,7 +1839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1810,7 +1850,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1821,7 +1861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1835,7 +1875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1843,22 +1883,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1875,7 +1915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1886,7 +1926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1894,12 +1934,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1913,27 +1953,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1947,17 +1987,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -1974,7 +2014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -1982,22 +2022,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2011,12 +2051,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2030,22 +2070,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2062,7 +2102,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2070,7 +2110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2078,17 +2118,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2102,22 +2142,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2134,7 +2174,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2145,7 +2185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2153,17 +2193,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2180,7 +2220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2188,7 +2228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2196,17 +2236,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2220,17 +2260,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2247,17 +2287,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2274,7 +2314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2282,22 +2322,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2314,7 +2354,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2322,7 +2362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2330,7 +2370,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2338,7 +2378,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2346,17 +2386,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2373,7 +2413,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2381,7 +2421,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2389,17 +2429,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2416,7 +2456,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2424,7 +2464,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2432,7 +2472,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2440,7 +2480,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2448,17 +2488,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2475,7 +2515,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2483,7 +2523,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2491,7 +2531,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2499,7 +2539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2507,12 +2547,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2529,7 +2569,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2537,27 +2577,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2574,7 +2614,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2582,37 +2622,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2629,7 +2669,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2637,7 +2677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2645,7 +2685,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2653,27 +2693,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2690,7 +2730,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2698,7 +2738,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2706,17 +2746,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2733,7 +2773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2741,7 +2781,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2749,27 +2789,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2786,7 +2826,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2794,7 +2834,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2802,22 +2842,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -2834,7 +2874,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -2842,7 +2882,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -2850,42 +2890,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -2902,7 +2942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -2913,7 +2953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -2924,7 +2964,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -2932,7 +2972,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>44292</v>
       </c>
@@ -2949,7 +2989,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -2960,7 +3000,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="4:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -2971,7 +3011,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="4:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -2979,9 +3019,69 @@
         <v>219</v>
       </c>
     </row>
-    <row r="259" spans="4:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>238</v>
+      </c>
+      <c r="I261" t="s">
+        <v>129</v>
+      </c>
+      <c r="P261" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D262" t="s">
+        <v>239</v>
+      </c>
+      <c r="I262" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I263" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I264" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I265" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I266" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I267" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I268" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I269" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5A6EF9-C290-4FC3-8B80-44D50ABE0C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB740D-65BD-41CA-A7A2-5B7EE51CB4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="1248" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="253">
   <si>
     <t>葉季儒</t>
   </si>
@@ -862,30 +862,45 @@
   <si>
     <t>9.資訊欄稱號換行</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.python排序時考慮special point</t>
+  </si>
+  <si>
+    <t>1.正式服成功導入SSL</t>
+  </si>
+  <si>
+    <t>傳輸連線都經過加密</t>
+  </si>
+  <si>
+    <t>3.python排序時考慮special point</t>
+  </si>
+  <si>
+    <t>4.完成緊急任務後分數沒有更新到伺服器</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1233,18 +1248,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R269"/>
+  <dimension ref="A1:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="P261" sqref="P261"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="J277" sqref="J277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1284,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1297,22 +1312,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1326,12 +1341,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1345,12 +1360,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1386,12 +1401,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1405,12 +1420,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1443,12 +1458,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1462,22 +1477,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1494,17 +1509,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1532,7 +1547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1546,22 +1561,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1575,12 +1590,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1597,12 +1612,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1613,17 +1628,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1645,12 +1660,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1675,17 +1690,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1699,12 +1714,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1726,17 +1741,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1750,22 +1765,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1779,7 +1794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1801,7 +1816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1809,7 +1824,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1817,12 +1832,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1839,7 +1854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1850,7 +1865,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1861,7 +1876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1883,22 +1898,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1915,7 +1930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1934,12 +1949,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1953,27 +1968,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -1987,17 +2002,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2014,7 +2029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2022,22 +2037,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2051,12 +2066,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2070,22 +2085,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2102,7 +2117,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2118,17 +2133,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2142,22 +2157,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2174,7 +2189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2185,7 +2200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2193,17 +2208,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2220,7 +2235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2228,7 +2243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2236,17 +2251,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2260,17 +2275,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2287,17 +2302,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2314,7 +2329,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2322,22 +2337,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2354,7 +2369,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2370,7 +2385,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2378,7 +2393,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2386,17 +2401,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2421,7 +2436,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2429,17 +2444,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2464,7 +2479,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2472,7 +2487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2480,7 +2495,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2488,17 +2503,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2515,7 +2530,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2523,7 +2538,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2539,7 +2554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2547,12 +2562,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2569,7 +2584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2577,27 +2592,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2622,37 +2637,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2669,7 +2684,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2677,7 +2692,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2685,7 +2700,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2693,27 +2708,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2738,7 +2753,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2746,17 +2761,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2789,27 +2804,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2826,7 +2841,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2834,7 +2849,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2842,22 +2857,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -2874,7 +2889,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -2882,7 +2897,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -2890,42 +2905,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -2942,7 +2957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -2953,7 +2968,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -2964,17 +2979,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="D253" t="s">
         <v>232</v>
       </c>
       <c r="I253" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16">
       <c r="A255" s="3">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B255" t="s">
         <v>0</v>
@@ -2989,7 +3004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3000,7 +3015,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3011,20 +3026,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="D258" t="s">
         <v>234</v>
       </c>
       <c r="I258" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3041,7 +3056,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3049,39 +3064,80 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="I269" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16">
+      <c r="A271" s="3">
+        <v>44294</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>249</v>
+      </c>
+      <c r="I271" t="s">
+        <v>58</v>
+      </c>
+      <c r="P271" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16">
+      <c r="D272" t="s">
+        <v>250</v>
+      </c>
+      <c r="I272" t="s">
+        <v>201</v>
+      </c>
+      <c r="P272" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="273" spans="9:16">
+      <c r="I273" t="s">
+        <v>251</v>
+      </c>
+      <c r="P273" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="274" spans="9:16">
+      <c r="I274" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB740D-65BD-41CA-A7A2-5B7EE51CB4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749155D6-3BF8-4A40-9C41-174F59D38EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="257">
   <si>
     <t>葉季儒</t>
   </si>
@@ -877,6 +877,18 @@
   </si>
   <si>
     <t>4.完成緊急任務後分數沒有更新到伺服器</t>
+  </si>
+  <si>
+    <t>1.增加登入/註冊畫面確認文字</t>
+  </si>
+  <si>
+    <t>5.初次載入分數沒有加載?</t>
+  </si>
+  <si>
+    <t>1.連線超時警告</t>
+  </si>
+  <si>
+    <t>2.錯誤代碼正規化</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R274"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="J277" sqref="J277"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="M278" sqref="M278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3127,7 +3139,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="9:16">
+    <row r="273" spans="1:16">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3135,9 +3147,49 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="9:16">
+    <row r="274" spans="1:16">
       <c r="I274" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16">
+      <c r="A276" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="D276" t="s">
+        <v>253</v>
+      </c>
+      <c r="I276" t="s">
+        <v>58</v>
+      </c>
+      <c r="P276" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16">
+      <c r="I277" t="s">
+        <v>201</v>
+      </c>
+      <c r="P277" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16">
+      <c r="I278" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16">
+      <c r="I279" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16">
+      <c r="I280" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749155D6-3BF8-4A40-9C41-174F59D38EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E5E33-FD7A-4A6A-847D-A8D214323EA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="263">
   <si>
     <t>葉季儒</t>
   </si>
@@ -889,30 +889,54 @@
   </si>
   <si>
     <t>2.錯誤代碼正規化</t>
+  </si>
+  <si>
+    <t>3.按鈕干擾問題解決</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.娃娃頭貼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.獎勵設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.分數相關欄位設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.版面配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.拼圖選單調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1260,18 +1284,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R280"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="M278" sqref="M278"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="L284" sqref="L284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1320,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1313,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1324,22 +1348,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1353,12 +1377,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1372,12 +1396,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1391,7 +1415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1413,12 +1437,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1432,12 +1456,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1454,7 +1478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1462,7 +1486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1470,12 +1494,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1489,22 +1513,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1521,17 +1545,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1548,7 +1572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1559,7 +1583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1573,22 +1597,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1602,12 +1626,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1624,12 +1648,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1640,17 +1664,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1661,7 +1685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1672,12 +1696,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1694,7 +1718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1702,17 +1726,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1726,12 +1750,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1745,7 +1769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1753,17 +1777,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1777,22 +1801,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1806,7 +1830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1814,7 +1838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1828,7 +1852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1836,7 +1860,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1844,12 +1868,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1866,7 +1890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1877,7 +1901,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1888,7 +1912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1902,7 +1926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1910,22 +1934,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1942,7 +1966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1953,7 +1977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1961,12 +1985,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -1980,27 +2004,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2014,17 +2038,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2041,7 +2065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2049,22 +2073,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2078,12 +2102,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2097,22 +2121,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2129,7 +2153,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2137,7 +2161,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2145,17 +2169,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2169,22 +2193,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2201,7 +2225,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2212,7 +2236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2220,17 +2244,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2247,7 +2271,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2255,7 +2279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2263,17 +2287,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2287,17 +2311,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2314,17 +2338,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2341,7 +2365,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2349,22 +2373,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2381,7 +2405,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2389,7 +2413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2397,7 +2421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2405,7 +2429,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2413,17 +2437,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2440,7 +2464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2448,7 +2472,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2456,17 +2480,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2483,7 +2507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2491,7 +2515,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2499,7 +2523,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2507,7 +2531,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2515,17 +2539,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2542,7 +2566,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2550,7 +2574,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2558,7 +2582,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2566,7 +2590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2574,12 +2598,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2596,7 +2620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2604,27 +2628,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2649,37 +2673,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2696,7 +2720,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2704,7 +2728,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2712,7 +2736,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2720,27 +2744,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2757,7 +2781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2765,7 +2789,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2773,17 +2797,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2800,7 +2824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2808,7 +2832,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2816,27 +2840,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2853,7 +2877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2861,7 +2885,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2869,22 +2893,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -2901,7 +2925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -2909,7 +2933,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -2917,42 +2941,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -2969,7 +2993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -2980,7 +3004,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -2991,7 +3015,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -2999,7 +3023,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3016,7 +3040,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3027,7 +3051,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3038,7 +3062,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3046,12 +3070,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3068,7 +3092,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3076,42 +3100,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3128,7 +3152,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3139,7 +3163,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3147,12 +3171,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3169,7 +3193,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3177,19 +3201,57 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I280" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A283" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>129</v>
+      </c>
+      <c r="I283" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D284" t="s">
+        <v>240</v>
+      </c>
+      <c r="I284" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D285" t="s">
+        <v>257</v>
+      </c>
+      <c r="I285" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D286" t="s">
+        <v>258</v>
+      </c>
+      <c r="I286" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E5E33-FD7A-4A6A-847D-A8D214323EA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56614F50-EDDF-41CE-B66F-588F530E99DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="268">
   <si>
     <t>葉季儒</t>
   </si>
@@ -913,30 +913,45 @@
   <si>
     <t>4.拼圖選單調整</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成team/personal rank/point串接</t>
+  </si>
+  <si>
+    <t>2.嘗試輸出遊戲至正式服</t>
+  </si>
+  <si>
+    <t>games0412b</t>
+  </si>
+  <si>
+    <t>3.更新正式服網頁至0412_1b</t>
+  </si>
+  <si>
+    <t>新增personal rank api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1284,18 +1299,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="L284" sqref="L284"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="N283" sqref="N283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1335,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1348,22 +1363,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1377,12 +1392,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1396,12 +1411,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1437,12 +1452,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1456,12 +1471,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1478,7 +1493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1486,7 +1501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1494,12 +1509,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1513,22 +1528,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1545,17 +1560,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1597,22 +1612,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1626,12 +1641,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1648,12 +1663,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1664,17 +1679,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1685,7 +1700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1696,12 +1711,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1726,17 +1741,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1750,12 +1765,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1769,7 +1784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1777,17 +1792,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1801,22 +1816,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1838,7 +1853,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1852,7 +1867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1860,7 +1875,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1868,12 +1883,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1901,7 +1916,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1912,7 +1927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1934,22 +1949,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -1985,12 +2000,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2004,27 +2019,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2038,17 +2053,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2073,22 +2088,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2102,12 +2117,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2121,22 +2136,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2153,7 +2168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2161,7 +2176,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2169,17 +2184,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2193,22 +2208,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2225,7 +2240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2236,7 +2251,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2244,17 +2259,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2271,7 +2286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2287,17 +2302,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2311,17 +2326,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2338,17 +2353,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2365,7 +2380,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2373,22 +2388,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2405,7 +2420,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2413,7 +2428,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2421,7 +2436,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2429,7 +2444,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2437,17 +2452,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2464,7 +2479,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2472,7 +2487,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2480,17 +2495,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2507,7 +2522,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2515,7 +2530,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2523,7 +2538,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2539,17 +2554,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2566,7 +2581,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2590,7 +2605,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2598,12 +2613,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2620,7 +2635,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2628,27 +2643,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2665,7 +2680,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2673,37 +2688,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2720,7 +2735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2728,7 +2743,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2736,7 +2751,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2744,27 +2759,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2789,7 +2804,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2797,17 +2812,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2824,7 +2839,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2832,7 +2847,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2840,27 +2855,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2877,7 +2892,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2885,7 +2900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2893,22 +2908,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -2925,7 +2940,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -2933,7 +2948,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -2941,42 +2956,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -2993,7 +3008,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3004,7 +3019,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3015,7 +3030,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3023,7 +3038,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3051,7 +3066,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3062,7 +3077,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3070,12 +3085,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3092,7 +3107,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3100,42 +3115,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3152,7 +3167,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3163,7 +3178,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3171,12 +3186,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3193,7 +3208,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3201,22 +3216,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3230,7 +3245,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3238,7 +3253,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3246,12 +3261,58 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16">
       <c r="D286" t="s">
         <v>258</v>
       </c>
       <c r="I286" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="3">
+        <v>44297</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289" t="s">
+        <v>263</v>
+      </c>
+      <c r="I289" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="D290" t="s">
+        <v>264</v>
+      </c>
+      <c r="I290" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="D291" t="s">
+        <v>265</v>
+      </c>
+      <c r="I291" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="D292" t="s">
+        <v>266</v>
+      </c>
+      <c r="I292" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="D293" t="s">
+        <v>267</v>
+      </c>
+      <c r="I293" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56614F50-EDDF-41CE-B66F-588F530E99DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3FE23-9D55-400B-B5D3-910704D88F37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="269">
   <si>
     <t>葉季儒</t>
   </si>
@@ -918,9 +918,6 @@
     <t>1.完成team/personal rank/point串接</t>
   </si>
   <si>
-    <t>2.嘗試輸出遊戲至正式服</t>
-  </si>
-  <si>
     <t>games0412b</t>
   </si>
   <si>
@@ -928,6 +925,12 @@
   </si>
   <si>
     <t>新增personal rank api</t>
+  </si>
+  <si>
+    <t>https://herpg.cgu.edu.tw/web_game/games0412b.html</t>
+  </si>
+  <si>
+    <t>2.輸出遊戲至正式服</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R293"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="N283" sqref="N283"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3285,7 +3288,7 @@
     </row>
     <row r="290" spans="1:9">
       <c r="D290" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I290" t="s">
         <v>201</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="291" spans="1:9">
       <c r="D291" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I291" t="s">
         <v>251</v>
@@ -3301,17 +3304,22 @@
     </row>
     <row r="292" spans="1:9">
       <c r="D292" t="s">
-        <v>266</v>
-      </c>
-      <c r="I292" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="D293" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I293" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="D294" t="s">
+        <v>266</v>
+      </c>
+      <c r="I294" t="s">
         <v>254</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3FE23-9D55-400B-B5D3-910704D88F37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B45420-1A25-4EF0-BC6B-7D8670C5E517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="272">
   <si>
     <t>葉季儒</t>
   </si>
@@ -931,6 +931,15 @@
   </si>
   <si>
     <t>2.輸出遊戲至正式服</t>
+  </si>
+  <si>
+    <t>(--以下未更新到正式服--)</t>
+  </si>
+  <si>
+    <t>4.修正緊急任務傳送失敗bug</t>
+  </si>
+  <si>
+    <t>world變數未定義</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R294"/>
+  <dimension ref="A1:R297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="G288" sqref="G288"/>
+      <selection activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3321,6 +3330,21 @@
       </c>
       <c r="I294" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="D295" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="D296" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="D297" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B45420-1A25-4EF0-BC6B-7D8670C5E517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39049E8-03FA-4B9A-BD4F-625969BA85EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="279">
   <si>
     <t>葉季儒</t>
   </si>
@@ -940,30 +940,58 @@
   </si>
   <si>
     <t>world變數未定義</t>
+  </si>
+  <si>
+    <t>1.特殊拼圖提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.活動的顯示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.突發事件獎勵設定(未完成)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.獎勵、二輪獎勵的設定問題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.拼圖選單調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.確認分數放哪裡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.字的調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1311,18 +1339,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R297"/>
+  <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="G295" sqref="G295"/>
+      <selection activeCell="I302" sqref="I302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1375,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1364,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1375,22 +1403,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1404,12 +1432,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1423,12 +1451,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1442,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1464,12 +1492,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1483,12 +1511,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1505,7 +1533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1521,12 +1549,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1540,22 +1568,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1572,17 +1600,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1599,7 +1627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1610,7 +1638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1624,22 +1652,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1653,12 +1681,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1675,12 +1703,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1691,17 +1719,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1712,7 +1740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1723,12 +1751,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1745,7 +1773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1753,17 +1781,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1777,12 +1805,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1796,7 +1824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1804,17 +1832,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1828,22 +1856,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1857,7 +1885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1865,7 +1893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1879,7 +1907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1887,7 +1915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1895,12 +1923,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1917,7 +1945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1928,7 +1956,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1939,7 +1967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1953,7 +1981,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1961,22 +1989,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -1993,7 +2021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2004,7 +2032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2012,12 +2040,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2031,27 +2059,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2065,17 +2093,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2092,7 +2120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2100,22 +2128,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2129,12 +2157,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2148,22 +2176,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2180,7 +2208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2188,7 +2216,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2196,17 +2224,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2220,22 +2248,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2252,7 +2280,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2263,7 +2291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2271,17 +2299,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2298,7 +2326,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2306,7 +2334,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2314,17 +2342,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2338,17 +2366,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2365,17 +2393,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2392,7 +2420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2400,22 +2428,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2432,7 +2460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2440,7 +2468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2448,7 +2476,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2456,7 +2484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2464,17 +2492,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2491,7 +2519,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2499,7 +2527,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2507,17 +2535,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2534,7 +2562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2542,7 +2570,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2550,7 +2578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2558,7 +2586,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2566,17 +2594,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2593,7 +2621,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2601,7 +2629,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2609,7 +2637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2617,7 +2645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2625,12 +2653,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2647,7 +2675,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2655,27 +2683,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2692,7 +2720,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2700,37 +2728,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2747,7 +2775,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2755,7 +2783,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2763,7 +2791,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2771,27 +2799,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2808,7 +2836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2816,7 +2844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2824,17 +2852,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2851,7 +2879,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2859,7 +2887,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2867,27 +2895,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2904,7 +2932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2912,7 +2940,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2920,22 +2948,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -2952,7 +2980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -2960,7 +2988,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -2968,42 +2996,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3020,7 +3048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3031,7 +3059,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3042,7 +3070,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3050,7 +3078,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3067,7 +3095,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3078,7 +3106,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3089,7 +3117,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3097,12 +3125,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3119,7 +3147,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3127,42 +3155,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3179,7 +3207,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3190,7 +3218,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3198,12 +3226,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3220,7 +3248,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3228,22 +3256,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3257,7 +3285,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3265,7 +3293,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3273,7 +3301,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3281,7 +3309,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3295,7 +3323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3303,7 +3331,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3311,12 +3339,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3324,7 +3352,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3332,19 +3360,54 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>272</v>
+      </c>
+      <c r="I299" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D300" t="s">
+        <v>273</v>
+      </c>
+      <c r="I300" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D301" t="s">
+        <v>274</v>
+      </c>
+      <c r="I301" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I302" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39049E8-03FA-4B9A-BD4F-625969BA85EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B7C07-7F1C-47E6-9849-41D5649E16E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="278">
   <si>
     <t>葉季儒</t>
   </si>
@@ -958,15 +958,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.拼圖選單調整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.確認分數放哪裡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.字的調整</t>
+    <t>2.確認分數放哪裡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.字的調整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1342,7 +1338,7 @@
   <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="I302" sqref="I302"/>
+      <selection activeCell="I301" sqref="I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3406,8 +3402,8 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I302" t="s">
-        <v>278</v>
+      <c r="D302" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54B7C07-7F1C-47E6-9849-41D5649E16E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF5487-13E6-476B-A27A-3FA830DC2F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="284">
   <si>
     <t>葉季儒</t>
   </si>
@@ -964,30 +964,48 @@
   <si>
     <t>3.字的調整</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.更換渲染引擎至GL2</t>
+  </si>
+  <si>
+    <t>2.修正重開team頁面沒有加載</t>
+  </si>
+  <si>
+    <t>3.資料庫修正移除activity title/time</t>
+  </si>
+  <si>
+    <t>4.前後端移除activity title/time</t>
+  </si>
+  <si>
+    <t>4.拼圖確認玩再更新(?</t>
+  </si>
+  <si>
+    <t>5.活動python更改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1335,18 +1353,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R302"/>
+  <dimension ref="A1:R308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="I301" sqref="I301"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="L309" sqref="L309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1389,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1399,22 +1417,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1428,12 +1446,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1447,12 +1465,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1466,7 +1484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1488,12 +1506,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1507,12 +1525,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1529,7 +1547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1545,12 +1563,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1564,22 +1582,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1596,17 +1614,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1648,22 +1666,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1677,12 +1695,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1699,12 +1717,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1715,17 +1733,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1736,7 +1754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1747,12 +1765,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1769,7 +1787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1777,17 +1795,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1801,12 +1819,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1820,7 +1838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1828,17 +1846,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1852,22 +1870,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1889,7 +1907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1903,7 +1921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1911,7 +1929,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1919,12 +1937,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1941,7 +1959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1952,7 +1970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1963,7 +1981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -1985,22 +2003,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2028,7 +2046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2036,12 +2054,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2055,27 +2073,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2089,17 +2107,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2116,7 +2134,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2124,22 +2142,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2153,12 +2171,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2172,22 +2190,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2204,7 +2222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2212,7 +2230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2220,17 +2238,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2244,22 +2262,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2295,17 +2313,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2338,17 +2356,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2362,17 +2380,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2389,17 +2407,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2416,7 +2434,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2424,22 +2442,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2456,7 +2474,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2464,7 +2482,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2472,7 +2490,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2480,7 +2498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2488,17 +2506,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2515,7 +2533,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2523,7 +2541,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2531,17 +2549,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2566,7 +2584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2574,7 +2592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2590,17 +2608,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2617,7 +2635,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2633,7 +2651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2641,7 +2659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2649,12 +2667,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2671,7 +2689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2679,27 +2697,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2716,7 +2734,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2724,37 +2742,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2779,7 +2797,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2787,7 +2805,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2795,27 +2813,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2832,7 +2850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2840,7 +2858,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2848,17 +2866,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2883,7 +2901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2891,27 +2909,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2928,7 +2946,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2936,7 +2954,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2944,22 +2962,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -2976,7 +2994,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -2984,7 +3002,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -2992,42 +3010,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3044,7 +3062,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3055,7 +3073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3066,7 +3084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3074,7 +3092,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3091,7 +3109,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3102,7 +3120,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3121,12 +3139,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3143,7 +3161,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3151,42 +3169,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3203,7 +3221,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3214,7 +3232,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3222,12 +3240,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3244,7 +3262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3252,22 +3270,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3281,7 +3299,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3289,7 +3307,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3297,7 +3315,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3327,7 +3345,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3335,12 +3353,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3356,22 +3374,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3385,7 +3403,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3393,7 +3411,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3401,9 +3419,52 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="D302" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="3">
+        <v>44299</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="D304" t="s">
+        <v>278</v>
+      </c>
+      <c r="I304" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="305" spans="4:9">
+      <c r="D305" t="s">
+        <v>279</v>
+      </c>
+      <c r="I305" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="306" spans="4:9">
+      <c r="D306" t="s">
+        <v>280</v>
+      </c>
+      <c r="I306" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="307" spans="4:9">
+      <c r="D307" t="s">
+        <v>281</v>
+      </c>
+      <c r="I307" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="308" spans="4:9">
+      <c r="I308" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF5487-13E6-476B-A27A-3FA830DC2F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31359C5-6C1A-4BD4-AC16-E6AE7B47D7B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="286">
   <si>
     <t>葉季儒</t>
   </si>
@@ -972,16 +972,22 @@
     <t>2.修正重開team頁面沒有加載</t>
   </si>
   <si>
-    <t>3.資料庫修正移除activity title/time</t>
-  </si>
-  <si>
-    <t>4.前後端移除activity title/time</t>
-  </si>
-  <si>
     <t>4.拼圖確認玩再更新(?</t>
   </si>
   <si>
     <t>5.活動python更改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    移除activity title/time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    新增news no/title</t>
+  </si>
+  <si>
+    <t>3.前後端移除activity title/time</t>
+  </si>
+  <si>
+    <t>4.更新資料庫版本至school_games_3nd</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R308"/>
+  <dimension ref="A1:R309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="L309" sqref="L309"/>
+      <selection activeCell="G312" sqref="G312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3448,7 +3454,7 @@
     </row>
     <row r="306" spans="4:9">
       <c r="D306" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I306" t="s">
         <v>251</v>
@@ -3456,14 +3462,22 @@
     </row>
     <row r="307" spans="4:9">
       <c r="D307" t="s">
+        <v>285</v>
+      </c>
+      <c r="I307" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="308" spans="4:9">
+      <c r="D308" t="s">
+        <v>282</v>
+      </c>
+      <c r="I308" t="s">
         <v>281</v>
       </c>
-      <c r="I307" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="308" spans="4:9">
-      <c r="I308" t="s">
+    </row>
+    <row r="309" spans="4:9">
+      <c r="D309" t="s">
         <v>283</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31359C5-6C1A-4BD4-AC16-E6AE7B47D7B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94579CC2-555C-45B9-84F5-8C76A87764AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="293">
   <si>
     <t>葉季儒</t>
   </si>
@@ -988,30 +988,58 @@
   </si>
   <si>
     <t>4.更新資料庫版本至school_games_3nd</t>
+  </si>
+  <si>
+    <t>1.拼圖選單消失功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修正special hint的bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.修正拼圖倉庫拼圖數量的錯誤計算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.修正角落拼圖沒顯示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每次登入後一片拼圖升級後無法被再次點選問題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.突發事件內容排版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.二輪事件確認</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1359,18 +1387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R309"/>
+  <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="G312" sqref="G312"/>
+      <selection activeCell="I313" sqref="I313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1423,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1412,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1423,22 +1451,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1452,12 +1480,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1471,12 +1499,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1490,7 +1518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1498,7 +1526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1512,12 +1540,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1531,12 +1559,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1553,7 +1581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1569,12 +1597,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1588,22 +1616,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1620,17 +1648,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1647,7 +1675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1658,7 +1686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1672,22 +1700,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1701,12 +1729,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1723,12 +1751,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1739,17 +1767,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1760,7 +1788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1771,12 +1799,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1793,7 +1821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1801,17 +1829,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1825,12 +1853,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1844,7 +1872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1852,17 +1880,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1876,22 +1904,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1905,7 +1933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1913,7 +1941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1927,7 +1955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1935,7 +1963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1943,12 +1971,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1965,7 +1993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +2004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -1987,7 +2015,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -2001,7 +2029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -2009,22 +2037,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2041,7 +2069,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2052,7 +2080,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2060,12 +2088,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2079,27 +2107,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2113,17 +2141,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2140,7 +2168,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2148,22 +2176,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2177,12 +2205,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2196,22 +2224,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2228,7 +2256,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2236,7 +2264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2244,17 +2272,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2268,22 +2296,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2300,7 +2328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2311,7 +2339,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2319,17 +2347,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2346,7 +2374,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2354,7 +2382,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2362,17 +2390,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2386,17 +2414,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2413,17 +2441,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2440,7 +2468,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2448,22 +2476,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2480,7 +2508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2488,7 +2516,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2496,7 +2524,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2504,7 +2532,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2512,17 +2540,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2539,7 +2567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2547,7 +2575,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2555,17 +2583,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2582,7 +2610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2590,7 +2618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2598,7 +2626,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2606,7 +2634,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2614,17 +2642,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2641,7 +2669,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2649,7 +2677,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2657,7 +2685,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2665,7 +2693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2673,12 +2701,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2695,7 +2723,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2703,27 +2731,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2740,7 +2768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2748,37 +2776,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2795,7 +2823,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2803,7 +2831,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2811,7 +2839,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2819,27 +2847,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2856,7 +2884,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2864,7 +2892,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2872,17 +2900,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2899,7 +2927,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2907,7 +2935,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2915,27 +2943,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2952,7 +2980,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2960,7 +2988,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2968,22 +2996,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -3000,7 +3028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -3008,7 +3036,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -3016,42 +3044,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3068,7 +3096,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3079,7 +3107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3090,7 +3118,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3098,7 +3126,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3115,7 +3143,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3126,7 +3154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3137,7 +3165,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3145,12 +3173,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3167,7 +3195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3175,42 +3203,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3227,7 +3255,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3238,7 +3266,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3246,12 +3274,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3268,7 +3296,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3276,22 +3304,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3305,7 +3333,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3313,7 +3341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3321,7 +3349,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3329,7 +3357,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3343,7 +3371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3351,7 +3379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3359,12 +3387,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3372,7 +3400,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3380,22 +3408,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3409,7 +3437,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3417,7 +3445,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3425,12 +3453,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>44299</v>
       </c>
@@ -3444,7 +3472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="4:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
         <v>279</v>
       </c>
@@ -3452,7 +3480,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="306" spans="4:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>284</v>
       </c>
@@ -3460,7 +3488,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="4:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
         <v>285</v>
       </c>
@@ -3468,7 +3496,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="4:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>282</v>
       </c>
@@ -3476,9 +3504,49 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="4:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D309" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" s="3">
+        <v>44300</v>
+      </c>
+      <c r="B311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>286</v>
+      </c>
+      <c r="I311" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D312" t="s">
+        <v>287</v>
+      </c>
+      <c r="I312" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D313" t="s">
+        <v>288</v>
+      </c>
+      <c r="I313" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D314" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D315" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94579CC2-555C-45B9-84F5-8C76A87764AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445FC26A-0C90-4ACD-A871-CE16E807767C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="304">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1016,30 +1016,63 @@
   <si>
     <t>2.二輪事件確認</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修復未組隊點擊team按鈕 遊戲Crash(判斷條件)</t>
+  </si>
+  <si>
+    <t>2.修正登入錯誤不再Crash (後續加上相應提示)</t>
+  </si>
+  <si>
+    <t>3.map_oper後更新地圖資料</t>
+  </si>
+  <si>
+    <t>3.拼圖確認玩再更新(?</t>
+  </si>
+  <si>
+    <t>4.map新增point欄位</t>
+  </si>
+  <si>
+    <t>4.活動python更改</t>
+  </si>
+  <si>
+    <t>5.emergency record/map put 計分</t>
+  </si>
+  <si>
+    <t>5.登入帳號密碼錯誤提示</t>
+  </si>
+  <si>
+    <t>6.修復排名功能</t>
+  </si>
+  <si>
+    <t>7.完成匯入資料python</t>
+  </si>
+  <si>
+    <t>emergency point_give</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1387,18 +1420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R315"/>
+  <dimension ref="A1:R323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="I313" sqref="I313"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="A317" sqref="A317:I323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1423,7 +1456,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1440,7 +1473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1451,22 +1484,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1480,12 +1513,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1499,12 +1532,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1518,7 +1551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1526,7 +1559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1540,12 +1573,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1559,12 +1592,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1581,7 +1614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1589,7 +1622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1597,12 +1630,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1616,22 +1649,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1648,17 +1681,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1675,7 +1708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1686,7 +1719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1700,22 +1733,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1729,12 +1762,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1751,12 +1784,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1767,17 +1800,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1788,7 +1821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1799,12 +1832,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1821,7 +1854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1829,17 +1862,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1853,12 +1886,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1872,7 +1905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1880,17 +1913,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -1904,22 +1937,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -1933,7 +1966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1941,7 +1974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -1955,7 +1988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -1963,7 +1996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -1971,12 +2004,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -1993,7 +2026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -2004,7 +2037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -2015,7 +2048,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -2029,7 +2062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -2037,22 +2070,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2069,7 +2102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2080,7 +2113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2088,12 +2121,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2107,27 +2140,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2141,17 +2174,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2168,7 +2201,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2176,22 +2209,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2205,12 +2238,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2224,22 +2257,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2256,7 +2289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2264,7 +2297,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2272,17 +2305,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2296,22 +2329,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2328,7 +2361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2339,7 +2372,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2347,17 +2380,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2374,7 +2407,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2382,7 +2415,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2390,17 +2423,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2414,17 +2447,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2441,17 +2474,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2468,7 +2501,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2476,22 +2509,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2508,7 +2541,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2516,7 +2549,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2524,7 +2557,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2532,7 +2565,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2540,17 +2573,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2567,7 +2600,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2575,7 +2608,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2583,17 +2616,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2610,7 +2643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2618,7 +2651,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2626,7 +2659,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2634,7 +2667,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2642,17 +2675,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2669,7 +2702,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2677,7 +2710,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2685,7 +2718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2693,7 +2726,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2701,12 +2734,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2723,7 +2756,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2731,27 +2764,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2768,7 +2801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2776,37 +2809,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2823,7 +2856,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2831,7 +2864,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2839,7 +2872,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2847,27 +2880,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2884,7 +2917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -2892,7 +2925,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -2900,17 +2933,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -2927,7 +2960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -2935,7 +2968,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -2943,27 +2976,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -2980,7 +3013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -2988,7 +3021,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -2996,22 +3029,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -3028,7 +3061,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -3036,7 +3069,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -3044,42 +3077,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3096,7 +3129,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3107,7 +3140,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3118,7 +3151,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3126,7 +3159,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3143,7 +3176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3154,7 +3187,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3165,7 +3198,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3173,12 +3206,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3195,7 +3228,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3203,42 +3236,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3255,7 +3288,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3266,7 +3299,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3274,12 +3307,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3296,7 +3329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3304,22 +3337,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3333,7 +3366,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3341,7 +3374,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3349,7 +3382,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3357,7 +3390,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3371,7 +3404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3379,7 +3412,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3387,12 +3420,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3400,7 +3433,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3408,22 +3441,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3437,7 +3470,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3445,7 +3478,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3453,12 +3486,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="D302" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9">
       <c r="A304" s="3">
         <v>44299</v>
       </c>
@@ -3472,7 +3505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9">
       <c r="D305" t="s">
         <v>279</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9">
       <c r="D306" t="s">
         <v>284</v>
       </c>
@@ -3488,7 +3521,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9">
       <c r="D307" t="s">
         <v>285</v>
       </c>
@@ -3496,7 +3529,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9">
       <c r="D308" t="s">
         <v>282</v>
       </c>
@@ -3504,12 +3537,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9">
       <c r="D309" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9">
       <c r="A311" s="3">
         <v>44300</v>
       </c>
@@ -3523,7 +3556,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9">
       <c r="D312" t="s">
         <v>287</v>
       </c>
@@ -3531,7 +3564,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9">
       <c r="D313" t="s">
         <v>288</v>
       </c>
@@ -3539,14 +3572,73 @@
         <v>261</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9">
       <c r="D314" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9">
       <c r="D315" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="3">
+        <v>44300</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" t="s">
+        <v>293</v>
+      </c>
+      <c r="I317" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="D318" t="s">
+        <v>294</v>
+      </c>
+      <c r="I318" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="D319" t="s">
+        <v>295</v>
+      </c>
+      <c r="I319" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="D320" t="s">
+        <v>297</v>
+      </c>
+      <c r="I320" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="321" spans="4:9">
+      <c r="D321" t="s">
+        <v>299</v>
+      </c>
+      <c r="I321" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="322" spans="4:9">
+      <c r="D322" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="323" spans="4:9">
+      <c r="D323" t="s">
+        <v>302</v>
+      </c>
+      <c r="I323" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445FC26A-0C90-4ACD-A871-CE16E807767C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF5DAD-30A2-4548-BD6F-C9CD9BF429B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="307">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1027,28 +1027,37 @@
     <t>3.map_oper後更新地圖資料</t>
   </si>
   <si>
-    <t>3.拼圖確認玩再更新(?</t>
-  </si>
-  <si>
     <t>4.map新增point欄位</t>
   </si>
   <si>
-    <t>4.活動python更改</t>
-  </si>
-  <si>
     <t>5.emergency record/map put 計分</t>
   </si>
   <si>
-    <t>5.登入帳號密碼錯誤提示</t>
-  </si>
-  <si>
     <t>6.修復排名功能</t>
   </si>
   <si>
     <t>7.完成匯入資料python</t>
   </si>
   <si>
-    <t>emergency point_give</t>
+    <t>2.拼圖確認玩再更新(?</t>
+  </si>
+  <si>
+    <t>3.活動python更改</t>
+  </si>
+  <si>
+    <t>4.登入帳號密碼錯誤提示</t>
+  </si>
+  <si>
+    <t>1.修正 import activity python</t>
+  </si>
+  <si>
+    <t>2.修正 firstday reward python</t>
+  </si>
+  <si>
+    <t>3. 登入畫面 顯示帳號密碼錯誤</t>
+  </si>
+  <si>
+    <t>3.網頁中文問題</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R323"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317:I323"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="I327" sqref="I327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3601,7 +3610,7 @@
         <v>294</v>
       </c>
       <c r="I318" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -3609,36 +3618,60 @@
         <v>295</v>
       </c>
       <c r="I319" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="D320" t="s">
+        <v>296</v>
+      </c>
+      <c r="I320" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="D321" t="s">
         <v>297</v>
       </c>
-      <c r="I320" t="s">
+    </row>
+    <row r="322" spans="1:9">
+      <c r="D322" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="321" spans="4:9">
-      <c r="D321" t="s">
+    <row r="323" spans="1:9">
+      <c r="D323" t="s">
         <v>299</v>
       </c>
-      <c r="I321" t="s">
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" s="3">
+        <v>44301</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325" t="s">
+        <v>303</v>
+      </c>
+      <c r="I325" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="D326" t="s">
+        <v>304</v>
+      </c>
+      <c r="I326" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="322" spans="4:9">
-      <c r="D322" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="323" spans="4:9">
-      <c r="D323" t="s">
-        <v>302</v>
-      </c>
-      <c r="I323" t="s">
-        <v>303</v>
+    <row r="327" spans="1:9">
+      <c r="D327" t="s">
+        <v>305</v>
+      </c>
+      <c r="I327" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF5DAD-30A2-4548-BD6F-C9CD9BF429B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C9F0A1-DBF0-44A8-9D2B-D578F4F89EC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="314">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1058,13 +1058,34 @@
   </si>
   <si>
     <t>3.網頁中文問題</t>
+  </si>
+  <si>
+    <t>4.更新資料庫版本至school_games_3_01nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    新增map point欄位</t>
+  </si>
+  <si>
+    <t>5.更新正式服遊戲至games0415b</t>
+  </si>
+  <si>
+    <t>https://herpg.cgu.edu.tw/web_game/games0415b.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    修正計分方式及其他更動</t>
+  </si>
+  <si>
+    <t>6.更新正式服網頁至0415_1b</t>
+  </si>
+  <si>
+    <t>7.更改登入/註冊頁面按鈕圖片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1105,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1128,10 +1157,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1149,9 +1179,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1429,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R327"/>
+  <dimension ref="A1:R335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="I327" sqref="I327"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="K334" sqref="K334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3674,6 +3706,46 @@
         <v>306</v>
       </c>
     </row>
+    <row r="328" spans="1:9">
+      <c r="D328" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="D329" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="D330" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="D331" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="D332" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="D333" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="D334" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="D335" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I1:L1"/>
@@ -3681,7 +3753,10 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D331" r:id="rId1" xr:uid="{188159B2-266D-4FB3-9F87-435F87A9A279}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C9F0A1-DBF0-44A8-9D2B-D578F4F89EC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B4BAB-9F4F-4644-90E5-626378E81C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="316">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1079,6 +1079,12 @@
   </si>
   <si>
     <t>7.更改登入/註冊頁面按鈕圖片</t>
+  </si>
+  <si>
+    <t>1.修正import_activity python</t>
+  </si>
+  <si>
+    <t>4.遊戲包異常過大(?</t>
   </si>
 </sst>
 </file>
@@ -1167,6 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,7 +1186,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1461,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R335"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="K334" sqref="K334"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="O344" sqref="O344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1480,22 +1486,22 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="5" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3">
@@ -3722,7 +3728,7 @@
       </c>
     </row>
     <row r="331" spans="1:9">
-      <c r="D331" s="9" t="s">
+      <c r="D331" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3744,6 +3750,35 @@
     <row r="335" spans="1:9">
       <c r="D335" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="3">
+        <v>44302</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D337" t="s">
+        <v>314</v>
+      </c>
+      <c r="I337" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="I338" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="I339" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="I340" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B4BAB-9F4F-4644-90E5-626378E81C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA811D9-FA3F-4720-B660-4D323F18FB95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="321">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1085,6 +1085,21 @@
   </si>
   <si>
     <t>4.遊戲包異常過大(?</t>
+  </si>
+  <si>
+    <t>1.修正排名系統(python/後端)</t>
+  </si>
+  <si>
+    <t>2.修正個人排名標籤不顯示拼圖Bug</t>
+  </si>
+  <si>
+    <t>1.拼圖確認玩再更新(?</t>
+  </si>
+  <si>
+    <t>2.網頁中文問題</t>
+  </si>
+  <si>
+    <t>3.遊戲包異常過大(?</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="O344" sqref="O344"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="K348" sqref="K348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3779,6 +3794,33 @@
     <row r="340" spans="1:9">
       <c r="I340" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="3">
+        <v>44302</v>
+      </c>
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>316</v>
+      </c>
+      <c r="I342" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="D343" t="s">
+        <v>317</v>
+      </c>
+      <c r="I343" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="I344" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA811D9-FA3F-4720-B660-4D323F18FB95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAFB03E-4F32-43E7-9655-354EF2FB277C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="326">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1100,6 +1100,21 @@
   </si>
   <si>
     <t>3.遊戲包異常過大(?</t>
+  </si>
+  <si>
+    <t>5.更新正式服遊戲至/web_game/index.html 0417b</t>
+  </si>
+  <si>
+    <t>6.更新正式服網頁至0417_1b</t>
+  </si>
+  <si>
+    <t>https://herpg.cgu.edu.tw/web_game/</t>
+  </si>
+  <si>
+    <t>4.總排名稱號</t>
+  </si>
+  <si>
+    <t>5.志工時數python</t>
   </si>
 </sst>
 </file>
@@ -1482,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R344"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="K348" sqref="K348"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="J345" sqref="J345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3819,8 +3834,27 @@
       </c>
     </row>
     <row r="344" spans="1:9">
+      <c r="D344" t="s">
+        <v>321</v>
+      </c>
       <c r="I344" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="D345" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I345" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="D346" t="s">
+        <v>322</v>
+      </c>
+      <c r="I346" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3832,8 +3866,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D331" r:id="rId1" xr:uid="{188159B2-266D-4FB3-9F87-435F87A9A279}"/>
+    <hyperlink ref="D345" r:id="rId2" xr:uid="{7DB3065F-5792-49A3-B10A-36D1A3DB859D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAFB03E-4F32-43E7-9655-354EF2FB277C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54651313-BF6F-46F7-8C69-B6B8089609BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="330">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1115,30 +1115,46 @@
   </si>
   <si>
     <t>5.志工時數python</t>
+  </si>
+  <si>
+    <t>1.突發事件給分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.按鈕指示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.排行榜分數圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.news的顯示(world.gd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1147,7 +1163,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1497,18 +1513,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="J345" sqref="J345"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +1549,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1550,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1561,22 +1577,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1590,12 +1606,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1609,12 +1625,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1650,12 +1666,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1669,12 +1685,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1691,7 +1707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1707,12 +1723,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1726,22 +1742,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1758,17 +1774,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1785,7 +1801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1796,7 +1812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1810,22 +1826,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1839,12 +1855,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1861,12 +1877,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1877,17 +1893,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1909,12 +1925,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1931,7 +1947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1939,17 +1955,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1963,12 +1979,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1982,7 +1998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -1990,17 +2006,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -2014,22 +2030,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -2043,7 +2059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -2051,7 +2067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -2073,7 +2089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -2081,12 +2097,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -2103,7 +2119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -2114,7 +2130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -2125,7 +2141,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -2139,7 +2155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -2147,22 +2163,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2179,7 +2195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2190,7 +2206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2198,12 +2214,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2217,27 +2233,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2251,17 +2267,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2278,7 +2294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2286,22 +2302,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2315,12 +2331,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2334,22 +2350,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2366,7 +2382,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2374,7 +2390,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2382,17 +2398,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2406,22 +2422,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2438,7 +2454,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2449,7 +2465,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2457,17 +2473,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2484,7 +2500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2500,17 +2516,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2524,17 +2540,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2551,17 +2567,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2578,7 +2594,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2586,22 +2602,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2618,7 +2634,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2626,7 +2642,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2634,7 +2650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2642,7 +2658,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2650,17 +2666,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2677,7 +2693,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2685,7 +2701,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2693,17 +2709,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2736,7 +2752,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2744,7 +2760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2752,17 +2768,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2779,7 +2795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2787,7 +2803,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2795,7 +2811,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2803,7 +2819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2811,12 +2827,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2841,27 +2857,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2878,7 +2894,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2886,37 +2902,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2933,7 +2949,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2941,7 +2957,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2949,7 +2965,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2957,27 +2973,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -2994,7 +3010,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -3002,7 +3018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -3010,17 +3026,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -3037,7 +3053,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -3045,7 +3061,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -3053,27 +3069,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -3090,7 +3106,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -3098,7 +3114,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -3106,22 +3122,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -3138,7 +3154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -3146,7 +3162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -3154,42 +3170,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3206,7 +3222,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3217,7 +3233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3228,7 +3244,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3236,7 +3252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3253,7 +3269,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3264,7 +3280,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3275,7 +3291,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3283,12 +3299,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3305,7 +3321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3313,42 +3329,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3365,7 +3381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3376,7 +3392,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3384,12 +3400,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3406,7 +3422,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3414,22 +3430,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3443,7 +3459,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3451,7 +3467,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3459,7 +3475,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3467,7 +3483,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3481,7 +3497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3489,7 +3505,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3497,12 +3513,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3510,7 +3526,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3518,22 +3534,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3547,7 +3563,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3555,7 +3571,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3563,12 +3579,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>44299</v>
       </c>
@@ -3582,7 +3598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
         <v>279</v>
       </c>
@@ -3590,7 +3606,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>284</v>
       </c>
@@ -3598,7 +3614,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
         <v>285</v>
       </c>
@@ -3606,7 +3622,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>282</v>
       </c>
@@ -3614,12 +3630,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D309" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>44300</v>
       </c>
@@ -3633,7 +3649,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D312" t="s">
         <v>287</v>
       </c>
@@ -3641,7 +3657,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D313" t="s">
         <v>288</v>
       </c>
@@ -3649,17 +3665,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D315" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>44300</v>
       </c>
@@ -3673,7 +3689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D318" t="s">
         <v>294</v>
       </c>
@@ -3681,7 +3697,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D319" t="s">
         <v>295</v>
       </c>
@@ -3689,7 +3705,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>296</v>
       </c>
@@ -3697,22 +3713,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D321" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D322" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D323" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>44301</v>
       </c>
@@ -3726,7 +3742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D326" t="s">
         <v>304</v>
       </c>
@@ -3734,7 +3750,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>305</v>
       </c>
@@ -3742,47 +3758,47 @@
         <v>306</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D328" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D330" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D331" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D332" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D333" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D334" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D335" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>44302</v>
       </c>
@@ -3796,22 +3812,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I338" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I339" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I340" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>44302</v>
       </c>
@@ -3825,7 +3841,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D343" t="s">
         <v>317</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D344" t="s">
         <v>321</v>
       </c>
@@ -3841,7 +3857,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D345" s="5" t="s">
         <v>323</v>
       </c>
@@ -3849,12 +3865,38 @@
         <v>324</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D346" t="s">
         <v>322</v>
       </c>
       <c r="I346" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" s="3">
+        <v>44303</v>
+      </c>
+      <c r="B349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D350" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D351" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D352" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54651313-BF6F-46F7-8C69-B6B8089609BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE34F2-80E0-41AC-9F78-F1616B3BE884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="331">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1111,12 +1111,6 @@
     <t>https://herpg.cgu.edu.tw/web_game/</t>
   </si>
   <si>
-    <t>4.總排名稱號</t>
-  </si>
-  <si>
-    <t>5.志工時數python</t>
-  </si>
-  <si>
     <t>1.突發事件給分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1131,30 +1125,39 @@
   <si>
     <t>4.news的顯示(world.gd)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.新增import volunteer python</t>
+  </si>
+  <si>
+    <t>8.修正創建隊伍成員沒有計分bug</t>
+  </si>
+  <si>
+    <t>9.新增 order person/team title on end(遊戲結束時使用)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1163,7 +1166,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1513,18 +1516,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R352"/>
+  <dimension ref="A1:R355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="D353" sqref="D353"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="L345" sqref="L345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1552,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1577,22 +1580,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1606,12 +1609,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1625,12 +1628,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1666,12 +1669,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1685,12 +1688,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1723,12 +1726,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1742,22 +1745,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1774,17 +1777,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1826,22 +1829,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1855,12 +1858,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1877,12 +1880,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1893,17 +1896,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1925,12 +1928,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1955,17 +1958,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -1979,12 +1982,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -2006,17 +2009,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -2030,22 +2033,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -2097,12 +2100,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -2163,22 +2166,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2214,12 +2217,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2233,27 +2236,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2267,17 +2270,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2302,22 +2305,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2331,12 +2334,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2350,22 +2353,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2398,17 +2401,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2422,22 +2425,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2473,17 +2476,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2516,17 +2519,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2540,17 +2543,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2567,17 +2570,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2602,22 +2605,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2666,17 +2669,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2709,17 +2712,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2768,17 +2771,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2827,12 +2830,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2857,27 +2860,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2902,37 +2905,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -2973,27 +2976,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -3026,17 +3029,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -3069,27 +3072,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -3122,22 +3125,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -3170,42 +3173,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3299,12 +3302,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3329,42 +3332,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3400,12 +3403,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3430,22 +3433,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3513,12 +3516,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3534,22 +3537,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3571,7 +3574,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3579,12 +3582,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="D302" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9">
       <c r="A304" s="3">
         <v>44299</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9">
       <c r="D305" t="s">
         <v>279</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9">
       <c r="D306" t="s">
         <v>284</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9">
       <c r="D307" t="s">
         <v>285</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9">
       <c r="D308" t="s">
         <v>282</v>
       </c>
@@ -3630,12 +3633,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9">
       <c r="D309" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9">
       <c r="A311" s="3">
         <v>44300</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9">
       <c r="D312" t="s">
         <v>287</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9">
       <c r="D313" t="s">
         <v>288</v>
       </c>
@@ -3665,17 +3668,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9">
       <c r="D314" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9">
       <c r="D315" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9">
       <c r="A317" s="3">
         <v>44300</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9">
       <c r="D318" t="s">
         <v>294</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9">
       <c r="D319" t="s">
         <v>295</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9">
       <c r="D320" t="s">
         <v>296</v>
       </c>
@@ -3713,22 +3716,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9">
       <c r="D321" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9">
       <c r="D322" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9">
       <c r="D323" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9">
       <c r="A325" s="3">
         <v>44301</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9">
       <c r="D326" t="s">
         <v>304</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9">
       <c r="D327" t="s">
         <v>305</v>
       </c>
@@ -3758,47 +3761,47 @@
         <v>306</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="D328" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="D329" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="D330" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="D331" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="D332" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="D333" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="D334" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="D335" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9">
       <c r="A337" s="3">
         <v>44302</v>
       </c>
@@ -3812,24 +3815,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9">
       <c r="I338" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9">
       <c r="I339" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9">
       <c r="I340" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9">
       <c r="A342" s="3">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B342" t="s">
         <v>0</v>
@@ -3841,7 +3844,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9">
       <c r="D343" t="s">
         <v>317</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9">
       <c r="D344" t="s">
         <v>321</v>
       </c>
@@ -3857,46 +3860,60 @@
         <v>320</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D345" s="5" t="s">
+    <row r="345" spans="1:9">
+      <c r="D345" t="s">
         <v>323</v>
       </c>
-      <c r="I345" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:9">
       <c r="D346" t="s">
         <v>322</v>
       </c>
-      <c r="I346" t="s">
+    </row>
+    <row r="347" spans="1:9">
+      <c r="D347" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="D348" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="D349" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="D350" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" s="3">
+        <v>44303</v>
+      </c>
+      <c r="B352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4">
+      <c r="D353" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A349" s="3">
-        <v>44303</v>
-      </c>
-      <c r="B349" t="s">
-        <v>68</v>
-      </c>
-      <c r="D349" t="s">
+    <row r="354" spans="4:4">
+      <c r="D354" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D350" t="s">
+    <row r="355" spans="4:4">
+      <c r="D355" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D351" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D352" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3908,9 +3925,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D331" r:id="rId1" xr:uid="{188159B2-266D-4FB3-9F87-435F87A9A279}"/>
-    <hyperlink ref="D345" r:id="rId2" xr:uid="{7DB3065F-5792-49A3-B10A-36D1A3DB859D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE34F2-80E0-41AC-9F78-F1616B3BE884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF456BC-2A41-4013-ACF7-7638BF2629E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="332">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1134,6 +1134,9 @@
   </si>
   <si>
     <t>9.新增 order person/team title on end(遊戲結束時使用)</t>
+  </si>
+  <si>
+    <t>10.新增 Import news python</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="L345" sqref="L345"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="I352" sqref="I352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3890,29 +3893,34 @@
         <v>330</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
-      <c r="A352" s="3">
+    <row r="351" spans="1:9">
+      <c r="D351" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="3">
         <v>44303</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>68</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D353" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="353" spans="4:4">
-      <c r="D353" t="s">
+    <row r="354" spans="1:4">
+      <c r="D354" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="354" spans="4:4">
-      <c r="D354" t="s">
+    <row r="355" spans="1:4">
+      <c r="D355" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="355" spans="4:4">
-      <c r="D355" t="s">
+    <row r="356" spans="1:4">
+      <c r="D356" t="s">
         <v>327</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF456BC-2A41-4013-ACF7-7638BF2629E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B5047-34B5-4065-BA4A-1D55132DDEED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="333">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1137,6 +1137,9 @@
   </si>
   <si>
     <t>10.新增 Import news python</t>
+  </si>
+  <si>
+    <t>11.修正帳號欄輸入小寫問題</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="I352" sqref="I352"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="G357" sqref="G357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3898,29 +3901,34 @@
         <v>331</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="3">
+    <row r="352" spans="1:9">
+      <c r="D352" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="3">
         <v>44303</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>68</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D354" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="D354" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="D355" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="D356" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="D357" t="s">
         <v>327</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B5047-34B5-4065-BA4A-1D55132DDEED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085E778-A69C-4260-9820-00FBE749C438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="335">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1140,6 +1140,12 @@
   </si>
   <si>
     <t>11.修正帳號欄輸入小寫問題</t>
+  </si>
+  <si>
+    <t>12.移除過大字體 NotoSerifCJKtc-Black.otf</t>
+  </si>
+  <si>
+    <t>13.修正組隊介面字體大小</t>
   </si>
 </sst>
 </file>
@@ -1522,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R357"/>
+  <dimension ref="A1:R359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="G357" sqref="G357"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="F355" sqref="F355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3906,29 +3912,39 @@
         <v>332</v>
       </c>
     </row>
+    <row r="353" spans="1:4">
+      <c r="D353" t="s">
+        <v>333</v>
+      </c>
+    </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="3">
+      <c r="D354" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="3">
         <v>44303</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B356" t="s">
         <v>68</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D356" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="D355" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="D356" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="D357" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="D358" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="D359" t="s">
         <v>327</v>
       </c>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085E778-A69C-4260-9820-00FBE749C438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D875E0-0592-4681-A7CE-7146E36A005D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="336">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1099,15 +1099,9 @@
     <t>2.網頁中文問題</t>
   </si>
   <si>
-    <t>3.遊戲包異常過大(?</t>
-  </si>
-  <si>
     <t>5.更新正式服遊戲至/web_game/index.html 0417b</t>
   </si>
   <si>
-    <t>6.更新正式服網頁至0417_1b</t>
-  </si>
-  <si>
     <t>https://herpg.cgu.edu.tw/web_game/</t>
   </si>
   <si>
@@ -1146,6 +1140,15 @@
   </si>
   <si>
     <t>13.修正組隊介面字體大小</t>
+  </si>
+  <si>
+    <t>14.組隊頁面添加一些提示字詞</t>
+  </si>
+  <si>
+    <t>3.重複註冊Crash問題</t>
+  </si>
+  <si>
+    <t>6.更新正式服網頁至0417_2b</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R359"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="F355" sqref="F355"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="K353" sqref="K353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3866,86 +3869,91 @@
     </row>
     <row r="344" spans="1:9">
       <c r="D344" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I344" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="D345" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="D346" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="D347" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="D348" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="D349" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="D350" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="D351" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="352" spans="1:9">
       <c r="D352" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="D353" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="D354" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="D355" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="3">
         <v>44303</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
         <v>68</v>
       </c>
-      <c r="D356" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
       <c r="D357" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="D358" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="D359" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="D360" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D875E0-0592-4681-A7CE-7146E36A005D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC9E831-D61E-44E0-BEF4-8818C4A2F88C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="337">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1149,6 +1149,9 @@
   </si>
   <si>
     <t>6.更新正式服網頁至0417_2b</t>
+  </si>
+  <si>
+    <t>5.組隊頁面提示文字</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="K353" sqref="K353"/>
+      <selection activeCell="J353" sqref="J353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3954,6 +3957,11 @@
     <row r="360" spans="1:4">
       <c r="D360" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="D361" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC9E831-D61E-44E0-BEF4-8818C4A2F88C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB00DB-B420-450D-9B95-935435569E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="338">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1099,9 +1099,6 @@
     <t>2.網頁中文問題</t>
   </si>
   <si>
-    <t>5.更新正式服遊戲至/web_game/index.html 0417b</t>
-  </si>
-  <si>
     <t>https://herpg.cgu.edu.tw/web_game/</t>
   </si>
   <si>
@@ -1121,37 +1118,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.新增import volunteer python</t>
-  </si>
-  <si>
-    <t>8.修正創建隊伍成員沒有計分bug</t>
-  </si>
-  <si>
-    <t>9.新增 order person/team title on end(遊戲結束時使用)</t>
-  </si>
-  <si>
-    <t>10.新增 Import news python</t>
-  </si>
-  <si>
-    <t>11.修正帳號欄輸入小寫問題</t>
-  </si>
-  <si>
-    <t>12.移除過大字體 NotoSerifCJKtc-Black.otf</t>
-  </si>
-  <si>
-    <t>13.修正組隊介面字體大小</t>
-  </si>
-  <si>
-    <t>14.組隊頁面添加一些提示字詞</t>
-  </si>
-  <si>
     <t>3.重複註冊Crash問題</t>
   </si>
   <si>
-    <t>6.更新正式服網頁至0417_2b</t>
-  </si>
-  <si>
     <t>5.組隊頁面提示文字</t>
+  </si>
+  <si>
+    <t>3.更新正式服遊戲至/web_game/index.html 0417b</t>
+  </si>
+  <si>
+    <t>4.更新正式服網頁至0417_2b</t>
+  </si>
+  <si>
+    <t>5.新增import volunteer python</t>
+  </si>
+  <si>
+    <t>6.修正創建隊伍成員沒有計分bug</t>
+  </si>
+  <si>
+    <t>7.新增 order person/team title on end(遊戲結束時使用)</t>
+  </si>
+  <si>
+    <t>8.新增 Import news python</t>
+  </si>
+  <si>
+    <t>9.修正帳號欄輸入小寫問題</t>
+  </si>
+  <si>
+    <t>10.移除過大字體 NotoSerifCJKtc-Black.otf</t>
+  </si>
+  <si>
+    <t>11.修正組隊介面字體大小</t>
+  </si>
+  <si>
+    <t>12.組隊頁面添加一些提示字詞</t>
+  </si>
+  <si>
+    <t>1.修正重複註冊Crash問題</t>
   </si>
 </sst>
 </file>
@@ -1534,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R361"/>
+  <dimension ref="A1:R364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="J353" sqref="J353"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="O362" sqref="O362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3872,68 +3875,68 @@
     </row>
     <row r="344" spans="1:9">
       <c r="D344" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I344" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="D345" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="D346" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="D347" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="D348" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="D349" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="D350" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="D351" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:9">
       <c r="D352" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="D353" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
       <c r="D354" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:9">
       <c r="D355" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
       <c r="A357" s="3">
         <v>44303</v>
       </c>
@@ -3941,27 +3944,46 @@
         <v>68</v>
       </c>
       <c r="D357" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="D358" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="D358" t="s">
+    <row r="359" spans="1:9">
+      <c r="D359" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="D359" t="s">
+    <row r="360" spans="1:9">
+      <c r="D360" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="D360" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:9">
       <c r="D361" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" s="3">
+        <v>44304</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="D363" t="s">
+        <v>337</v>
+      </c>
+      <c r="I363" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="I364" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB00DB-B420-450D-9B95-935435569E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2856069-6ABC-45F8-8EB2-1CD9513EBD06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="341">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1155,6 +1155,15 @@
   </si>
   <si>
     <t>1.修正重複註冊Crash問題</t>
+  </si>
+  <si>
+    <t>1.網頁中文問題</t>
+  </si>
+  <si>
+    <t>2.修正註冊錢匯入資料問題</t>
+  </si>
+  <si>
+    <t>3.修正csv檔01-&gt;1導致bug</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R364"/>
+  <dimension ref="A1:R365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="O362" sqref="O362"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="D366" sqref="D366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3978,12 +3987,17 @@
         <v>337</v>
       </c>
       <c r="I363" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="364" spans="1:9">
-      <c r="I364" t="s">
-        <v>319</v>
+      <c r="D364" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="D365" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2856069-6ABC-45F8-8EB2-1CD9513EBD06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D11327-9F71-4858-826F-2A72C15DA509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="344">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1164,30 +1164,42 @@
   </si>
   <si>
     <t>3.修正csv檔01-&gt;1導致bug</t>
+  </si>
+  <si>
+    <t>1.加上拼圖tips</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.稱號條件更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.訊息框更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1196,7 +1208,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1546,18 +1558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="D366" sqref="D366"/>
+      <selection activeCell="G369" sqref="G369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1594,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1610,22 +1622,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1639,12 +1651,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1658,12 +1670,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1699,12 +1711,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1718,12 +1730,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1756,12 +1768,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1775,22 +1787,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1807,17 +1819,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1859,22 +1871,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1888,12 +1900,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1910,12 +1922,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1926,17 +1938,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1947,7 +1959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1958,12 +1970,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1988,17 +2000,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -2012,12 +2024,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -2031,7 +2043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -2039,17 +2051,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -2063,22 +2075,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -2130,12 +2142,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -2163,7 +2175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -2196,22 +2208,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2247,12 +2259,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2266,27 +2278,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2300,17 +2312,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2335,22 +2347,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2364,12 +2376,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2383,22 +2395,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2415,7 +2427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2423,7 +2435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2431,17 +2443,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2455,22 +2467,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2487,7 +2499,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2506,17 +2518,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2541,7 +2553,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2549,17 +2561,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2573,17 +2585,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2600,17 +2612,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2627,7 +2639,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2635,22 +2647,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2691,7 +2703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2699,17 +2711,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2742,17 +2754,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2769,7 +2781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2801,17 +2813,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2836,7 +2848,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2844,7 +2856,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2852,7 +2864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2860,12 +2872,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2890,27 +2902,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2935,37 +2947,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -2990,7 +3002,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -2998,7 +3010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -3006,27 +3018,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -3043,7 +3055,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -3059,17 +3071,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -3094,7 +3106,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -3102,27 +3114,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -3155,22 +3167,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -3203,42 +3215,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3255,7 +3267,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3266,7 +3278,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3324,7 +3336,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3332,12 +3344,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3354,7 +3366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3362,42 +3374,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3414,7 +3426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3433,12 +3445,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3463,22 +3475,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3500,7 +3512,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3516,7 +3528,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3530,7 +3542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3538,7 +3550,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3546,12 +3558,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3559,7 +3571,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3567,22 +3579,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3596,7 +3608,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3612,12 +3624,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>44299</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
         <v>279</v>
       </c>
@@ -3639,7 +3651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>284</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
         <v>285</v>
       </c>
@@ -3655,7 +3667,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>282</v>
       </c>
@@ -3663,12 +3675,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D309" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>44300</v>
       </c>
@@ -3682,7 +3694,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D312" t="s">
         <v>287</v>
       </c>
@@ -3690,7 +3702,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D313" t="s">
         <v>288</v>
       </c>
@@ -3698,17 +3710,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D315" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>44300</v>
       </c>
@@ -3722,7 +3734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D318" t="s">
         <v>294</v>
       </c>
@@ -3730,7 +3742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D319" t="s">
         <v>295</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>296</v>
       </c>
@@ -3746,22 +3758,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D321" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D322" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D323" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>44301</v>
       </c>
@@ -3775,7 +3787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D326" t="s">
         <v>304</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>305</v>
       </c>
@@ -3791,47 +3803,47 @@
         <v>306</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D328" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D330" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D331" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D332" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D333" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D334" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D335" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>44302</v>
       </c>
@@ -3845,22 +3857,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I338" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I339" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I340" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>44303</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D343" t="s">
         <v>317</v>
       </c>
@@ -3882,7 +3894,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D344" t="s">
         <v>327</v>
       </c>
@@ -3890,62 +3902,62 @@
         <v>325</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D345" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D346" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D347" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D348" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D349" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D350" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D351" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D352" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D353" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D354" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D355" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>44303</v>
       </c>
@@ -3956,27 +3968,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D358" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D359" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D360" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D361" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>44304</v>
       </c>
@@ -3990,14 +4002,35 @@
         <v>338</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D364" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D365" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A367" s="3">
+        <v>44306</v>
+      </c>
+      <c r="B367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D368" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D369" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D11327-9F71-4858-826F-2A72C15DA509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B24C9C1-9819-487D-B1D8-77A9A5A4741D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="346">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1176,30 +1176,36 @@
   <si>
     <t>3.訊息框更新</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正重複組隊bug(重複加入同個隊伍)</t>
+  </si>
+  <si>
+    <t>2.修正 註冊頁面學系沒有對齊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1208,7 +1214,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1558,18 +1564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R369"/>
+  <dimension ref="A1:R372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="G369" sqref="G369"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="D373" sqref="D373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1594,7 +1600,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1622,22 +1628,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1651,12 +1657,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1670,12 +1676,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1711,12 +1717,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1730,12 +1736,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1768,12 +1774,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1787,22 +1793,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1819,17 +1825,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1871,22 +1877,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1900,12 +1906,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1922,12 +1928,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1938,17 +1944,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1970,12 +1976,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -2000,17 +2006,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -2024,12 +2030,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -2051,17 +2057,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -2075,22 +2081,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -2142,12 +2148,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -2208,22 +2214,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2259,12 +2265,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2278,27 +2284,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2312,17 +2318,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2347,22 +2353,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2376,12 +2382,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2395,22 +2401,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2443,17 +2449,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2467,22 +2473,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2518,17 +2524,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2561,17 +2567,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2585,17 +2591,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2612,17 +2618,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2647,22 +2653,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2711,17 +2717,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2754,17 +2760,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2813,17 +2819,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2872,12 +2878,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2902,27 +2908,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2947,37 +2953,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -3018,27 +3024,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -3071,17 +3077,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -3114,27 +3120,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -3167,22 +3173,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -3215,42 +3221,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3344,12 +3350,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3374,42 +3380,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3445,12 +3451,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3475,22 +3481,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3558,12 +3564,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3579,22 +3585,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3608,7 +3614,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3624,12 +3630,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="D302" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9">
       <c r="A304" s="3">
         <v>44299</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9">
       <c r="D305" t="s">
         <v>279</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9">
       <c r="D306" t="s">
         <v>284</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9">
       <c r="D307" t="s">
         <v>285</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9">
       <c r="D308" t="s">
         <v>282</v>
       </c>
@@ -3675,12 +3681,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9">
       <c r="D309" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9">
       <c r="A311" s="3">
         <v>44300</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9">
       <c r="D312" t="s">
         <v>287</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9">
       <c r="D313" t="s">
         <v>288</v>
       </c>
@@ -3710,17 +3716,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9">
       <c r="D314" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9">
       <c r="D315" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9">
       <c r="A317" s="3">
         <v>44300</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9">
       <c r="D318" t="s">
         <v>294</v>
       </c>
@@ -3742,7 +3748,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9">
       <c r="D319" t="s">
         <v>295</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9">
       <c r="D320" t="s">
         <v>296</v>
       </c>
@@ -3758,22 +3764,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9">
       <c r="D321" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9">
       <c r="D322" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9">
       <c r="D323" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9">
       <c r="A325" s="3">
         <v>44301</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9">
       <c r="D326" t="s">
         <v>304</v>
       </c>
@@ -3795,7 +3801,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9">
       <c r="D327" t="s">
         <v>305</v>
       </c>
@@ -3803,47 +3809,47 @@
         <v>306</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="D328" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="D329" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="D330" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="D331" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="D332" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="D333" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="D334" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="D335" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9">
       <c r="A337" s="3">
         <v>44302</v>
       </c>
@@ -3857,22 +3863,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9">
       <c r="I338" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9">
       <c r="I339" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9">
       <c r="I340" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9">
       <c r="A342" s="3">
         <v>44303</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9">
       <c r="D343" t="s">
         <v>317</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9">
       <c r="D344" t="s">
         <v>327</v>
       </c>
@@ -3902,62 +3908,62 @@
         <v>325</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9">
       <c r="D345" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9">
       <c r="D346" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9">
       <c r="D347" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9">
       <c r="D348" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9">
       <c r="D349" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9">
       <c r="D350" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9">
       <c r="D351" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9">
       <c r="D352" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9">
       <c r="D353" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9">
       <c r="D354" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9">
       <c r="D355" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9">
       <c r="A357" s="3">
         <v>44303</v>
       </c>
@@ -3968,27 +3974,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9">
       <c r="D358" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9">
       <c r="D359" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9">
       <c r="D360" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9">
       <c r="D361" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9">
       <c r="A363" s="3">
         <v>44304</v>
       </c>
@@ -4002,17 +4008,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9">
       <c r="D364" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9">
       <c r="D365" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9">
       <c r="A367" s="3">
         <v>44306</v>
       </c>
@@ -4023,14 +4029,30 @@
         <v>341</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9">
       <c r="D368" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="D369" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="3">
+        <v>44307</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="D371" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="D372" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\Project_2021_spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B24C9C1-9819-487D-B1D8-77A9A5A4741D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FBB46-C28C-4E74-B8BD-5D0CE68980C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="347">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1182,30 +1182,34 @@
   </si>
   <si>
     <t>2.修正 註冊頁面學系沒有對齊</t>
+  </si>
+  <si>
+    <t>1.突發事件按鈕問題修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1214,7 +1218,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1564,18 +1568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R372"/>
+  <dimension ref="A1:R374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="D373" sqref="D373"/>
+      <selection activeCell="D374" sqref="D374"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1604,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44236</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -1628,22 +1632,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44237</v>
       </c>
@@ -1657,12 +1661,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44242</v>
       </c>
@@ -1676,12 +1680,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44243</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44244</v>
       </c>
@@ -1717,12 +1721,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44245</v>
       </c>
@@ -1736,12 +1740,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44248</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1774,12 +1778,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44249</v>
       </c>
@@ -1793,22 +1797,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44250</v>
       </c>
@@ -1825,17 +1829,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44251</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>39</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44252</v>
       </c>
@@ -1877,22 +1881,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44253</v>
       </c>
@@ -1906,12 +1910,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44254</v>
       </c>
@@ -1928,12 +1932,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1944,17 +1948,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44257</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44258</v>
       </c>
@@ -1976,12 +1980,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -2006,17 +2010,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44265</v>
       </c>
@@ -2030,12 +2034,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44266</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>64</v>
       </c>
@@ -2057,17 +2061,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44267</v>
       </c>
@@ -2081,22 +2085,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44267</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44268</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>87</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>88</v>
       </c>
@@ -2148,12 +2152,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44268</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>78</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>85</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44269</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>94</v>
       </c>
@@ -2214,22 +2218,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44269</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>92</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I100" t="s">
         <v>83</v>
       </c>
@@ -2265,12 +2269,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>44270</v>
       </c>
@@ -2284,27 +2288,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I104" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I106" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44271</v>
       </c>
@@ -2318,17 +2322,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I111" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44271</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>102</v>
       </c>
@@ -2353,22 +2357,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I117" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>44272</v>
       </c>
@@ -2382,12 +2386,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44274</v>
       </c>
@@ -2401,22 +2405,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44274</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I128" t="s">
         <v>114</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
         <v>115</v>
       </c>
@@ -2449,17 +2453,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44275</v>
       </c>
@@ -2473,22 +2477,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I136" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44276</v>
       </c>
@@ -2505,7 +2509,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>123</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>124</v>
       </c>
@@ -2524,17 +2528,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44277</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I145" t="s">
         <v>126</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I146" t="s">
         <v>131</v>
       </c>
@@ -2567,17 +2571,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P147" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>44279</v>
       </c>
@@ -2591,17 +2595,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I151" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I152" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44280</v>
       </c>
@@ -2618,17 +2622,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I155" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44280</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>138</v>
       </c>
@@ -2653,22 +2657,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I160" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I162" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44283</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>145</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>147</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>148</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>149</v>
       </c>
@@ -2717,17 +2721,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I169" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I170" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44284</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>154</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>155</v>
       </c>
@@ -2760,17 +2764,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I175" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>44284</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>161</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>163</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>165</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>167</v>
       </c>
@@ -2819,17 +2823,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>44285</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>172</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>173</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>175</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>177</v>
       </c>
@@ -2878,12 +2882,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I191" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44286</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>180</v>
       </c>
@@ -2908,27 +2912,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I195" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I196" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I197" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44289</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>189</v>
       </c>
@@ -2953,37 +2957,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I202" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I203" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I204" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I205" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I206" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I207" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>44290</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>193</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>194</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>195</v>
       </c>
@@ -3024,27 +3028,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I213" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I214" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I216" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>44290</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>200</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>202</v>
       </c>
@@ -3077,17 +3081,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44291</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>207</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>208</v>
       </c>
@@ -3120,27 +3124,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>44291</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>218</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>220</v>
       </c>
@@ -3173,22 +3177,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I235" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I236" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I237" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>44292</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>222</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>210</v>
       </c>
@@ -3221,42 +3225,42 @@
         <v>223</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I242" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I243" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I244" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I245" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I246" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I247" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I248" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>44292</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>230</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
         <v>231</v>
       </c>
@@ -3295,7 +3299,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>232</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>44293</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>236</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>233</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
         <v>234</v>
       </c>
@@ -3350,12 +3354,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>44294</v>
       </c>
@@ -3372,7 +3376,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
         <v>239</v>
       </c>
@@ -3380,42 +3384,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I263" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I264" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I265" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I266" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I267" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I268" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I269" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>44294</v>
       </c>
@@ -3432,7 +3436,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
         <v>250</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I273" t="s">
         <v>251</v>
       </c>
@@ -3451,12 +3455,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I274" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>44297</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I277" t="s">
         <v>201</v>
       </c>
@@ -3481,22 +3485,22 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I278" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I279" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I280" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>44297</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
         <v>240</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
         <v>257</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
         <v>258</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>44297</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
         <v>268</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
         <v>264</v>
       </c>
@@ -3564,12 +3568,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
         <v>265</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D294" t="s">
         <v>266</v>
       </c>
@@ -3585,22 +3589,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>44298</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
         <v>273</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D301" t="s">
         <v>274</v>
       </c>
@@ -3630,12 +3634,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>44299</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
         <v>279</v>
       </c>
@@ -3657,7 +3661,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>284</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
         <v>285</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>282</v>
       </c>
@@ -3681,12 +3685,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D309" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>44300</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D312" t="s">
         <v>287</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D313" t="s">
         <v>288</v>
       </c>
@@ -3716,17 +3720,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D315" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>44300</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D318" t="s">
         <v>294</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D319" t="s">
         <v>295</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>296</v>
       </c>
@@ -3764,22 +3768,22 @@
         <v>302</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D321" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D322" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D323" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>44301</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D326" t="s">
         <v>304</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>305</v>
       </c>
@@ -3809,47 +3813,47 @@
         <v>306</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D328" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D330" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D331" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D332" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D333" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D334" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D335" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>44302</v>
       </c>
@@ -3863,22 +3867,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I338" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I339" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I340" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>44303</v>
       </c>
@@ -3892,7 +3896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D343" t="s">
         <v>317</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D344" t="s">
         <v>327</v>
       </c>
@@ -3908,62 +3912,62 @@
         <v>325</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D345" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D346" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D347" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D348" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D349" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D350" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D351" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D352" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D353" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D354" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D355" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>44303</v>
       </c>
@@ -3974,27 +3978,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D358" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D359" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D360" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D361" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>44304</v>
       </c>
@@ -4008,17 +4012,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D364" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D365" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>44306</v>
       </c>
@@ -4029,17 +4033,17 @@
         <v>341</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D368" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D369" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>44307</v>
       </c>
@@ -4050,9 +4054,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D372" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="3">
+        <v>44313</v>
+      </c>
+      <c r="D374" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project_2021_Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FBB46-C28C-4E74-B8BD-5D0CE68980C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB29EC5-8AC0-4F19-A1C7-F2AF5534B085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10044" yWindow="192" windowWidth="12780" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="348">
   <si>
     <t>葉季儒</t>
   </si>
@@ -1185,6 +1185,10 @@
   </si>
   <si>
     <t>1.突發事件按鈕問題修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.關閉突發事件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1568,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R374"/>
+  <dimension ref="A1:R377"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="D374" sqref="D374"/>
+      <selection activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4065,6 +4069,17 @@
       </c>
       <c r="D374" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="3">
+        <v>44338</v>
+      </c>
+      <c r="B377" t="s">
+        <v>68</v>
+      </c>
+      <c r="D377" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
